--- a/porcentagem_estimativa.xlsx
+++ b/porcentagem_estimativa.xlsx
@@ -14,8 +14,9 @@
     <sheet name="Plan2" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$L$11:$Q$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$2:$I$42</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$2:$I$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$L$11:$Q$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$C$2:$I$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
   <si>
     <t xml:space="preserve">campo_mourao</t>
   </si>
@@ -149,13 +150,25 @@
     <t xml:space="preserve">previsão</t>
   </si>
   <si>
-    <t xml:space="preserve">summ</t>
+    <t xml:space="preserve">Estimate Accuracy</t>
   </si>
   <si>
     <t xml:space="preserve">outono</t>
   </si>
   <si>
+    <t xml:space="preserve">Spring</t>
+  </si>
+  <si>
     <t xml:space="preserve">mse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter</t>
   </si>
   <si>
     <t xml:space="preserve">data</t>
@@ -180,14 +193,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -209,6 +224,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -217,11 +233,17 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -549,8 +571,15 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="double"/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,135 +603,120 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,51 +724,115 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="40" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="41" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="43" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -762,156 +840,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="25" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="40" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="41" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="43" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Pivot Table Corner" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Value" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Field" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Category" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Title" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Result" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -976,7 +949,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1456,11 +1429,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83029604"/>
-        <c:axId val="77156806"/>
+        <c:axId val="71533126"/>
+        <c:axId val="46715064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83029604"/>
+        <c:axId val="71533126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,14 +1469,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77156806"/>
+        <c:crossAx val="46715064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77156806"/>
+        <c:axId val="46715064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1522,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83029604"/>
+        <c:crossAx val="71533126"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1586,7 +1559,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1942,12 +1915,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="63352021"/>
-        <c:axId val="1676221"/>
-        <c:axId val="45274752"/>
+        <c:axId val="66457841"/>
+        <c:axId val="98022693"/>
+        <c:axId val="63975421"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63352021"/>
+        <c:axId val="66457841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,14 +1956,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676221"/>
+        <c:crossAx val="98022693"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1676221"/>
+        <c:axId val="98022693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2038,13 +2011,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63352021"/>
+        <c:crossAx val="66457841"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="45274752"/>
+        <c:axId val="63975421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2053,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676221"/>
+        <c:crossAx val="98022693"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2120,7 +2093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2476,12 +2449,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="37461346"/>
-        <c:axId val="95499521"/>
-        <c:axId val="71233004"/>
+        <c:axId val="3196059"/>
+        <c:axId val="95055487"/>
+        <c:axId val="14283203"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="37461346"/>
+        <c:axId val="3196059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,14 +2490,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95499521"/>
+        <c:crossAx val="95055487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95499521"/>
+        <c:axId val="95055487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2572,13 +2545,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37461346"/>
+        <c:crossAx val="3196059"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="71233004"/>
+        <c:axId val="14283203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2587,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95499521"/>
+        <c:crossAx val="95055487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2654,7 +2627,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3010,12 +2983,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="63787709"/>
-        <c:axId val="25345127"/>
-        <c:axId val="27702842"/>
+        <c:axId val="34875513"/>
+        <c:axId val="91167164"/>
+        <c:axId val="12131034"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63787709"/>
+        <c:axId val="34875513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,14 +3024,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25345127"/>
+        <c:crossAx val="91167164"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25345127"/>
+        <c:axId val="91167164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,12 +3077,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63787709"/>
+        <c:crossAx val="34875513"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="27702842"/>
+        <c:axId val="12131034"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,7 +3118,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25345127"/>
+        <c:crossAx val="91167164"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3185,7 +3158,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3770,12 +3743,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="22007307"/>
-        <c:axId val="6249234"/>
-        <c:axId val="12935486"/>
+        <c:axId val="29477985"/>
+        <c:axId val="2105839"/>
+        <c:axId val="83863483"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="22007307"/>
+        <c:axId val="29477985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3811,14 +3784,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6249234"/>
+        <c:crossAx val="2105839"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6249234"/>
+        <c:axId val="2105839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="65"/>
@@ -3865,12 +3838,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22007307"/>
+        <c:crossAx val="29477985"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="12935486"/>
+        <c:axId val="83863483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3906,7 +3879,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6249234"/>
+        <c:crossAx val="2105839"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3946,7 +3919,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4531,12 +4504,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="299323"/>
-        <c:axId val="78014173"/>
-        <c:axId val="79432524"/>
+        <c:axId val="32223378"/>
+        <c:axId val="20420803"/>
+        <c:axId val="23455348"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="299323"/>
+        <c:axId val="32223378"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4572,14 +4545,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78014173"/>
+        <c:crossAx val="20420803"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78014173"/>
+        <c:axId val="20420803"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="65"/>
@@ -4626,12 +4599,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299323"/>
+        <c:crossAx val="32223378"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="79432524"/>
+        <c:axId val="23455348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4667,7 +4640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78014173"/>
+        <c:crossAx val="20420803"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4707,7 +4680,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5292,12 +5265,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="4504812"/>
-        <c:axId val="97149339"/>
-        <c:axId val="78424764"/>
+        <c:axId val="34054694"/>
+        <c:axId val="27862625"/>
+        <c:axId val="91614010"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="4504812"/>
+        <c:axId val="34054694"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,14 +5306,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97149339"/>
+        <c:crossAx val="27862625"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97149339"/>
+        <c:axId val="27862625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="65"/>
@@ -5387,12 +5360,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4504812"/>
+        <c:crossAx val="34054694"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="78424764"/>
+        <c:axId val="91614010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5428,7 +5401,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97149339"/>
+        <c:crossAx val="27862625"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5468,7 +5441,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6053,12 +6026,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="76405183"/>
-        <c:axId val="33205192"/>
-        <c:axId val="6579295"/>
+        <c:axId val="2880059"/>
+        <c:axId val="64336119"/>
+        <c:axId val="13814244"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76405183"/>
+        <c:axId val="2880059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6094,14 +6067,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33205192"/>
+        <c:crossAx val="64336119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33205192"/>
+        <c:axId val="64336119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="65"/>
@@ -6148,12 +6121,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76405183"/>
+        <c:crossAx val="2880059"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="6579295"/>
+        <c:axId val="13814244"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,7 +6162,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33205192"/>
+        <c:crossAx val="64336119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6229,7 +6202,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6733,11 +6706,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="42327489"/>
-        <c:axId val="21255452"/>
+        <c:axId val="76238476"/>
+        <c:axId val="21418869"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42327489"/>
+        <c:axId val="76238476"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6773,14 +6746,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21255452"/>
+        <c:crossAx val="21418869"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21255452"/>
+        <c:axId val="21418869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="65"/>
@@ -6827,7 +6800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42327489"/>
+        <c:crossAx val="76238476"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6864,7 +6837,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7449,12 +7422,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="5654106"/>
-        <c:axId val="8226497"/>
-        <c:axId val="85546381"/>
+        <c:axId val="4539929"/>
+        <c:axId val="67812987"/>
+        <c:axId val="75310859"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="5654106"/>
+        <c:axId val="4539929"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7490,14 +7463,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8226497"/>
+        <c:crossAx val="67812987"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8226497"/>
+        <c:axId val="67812987"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7543,12 +7516,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5654106"/>
+        <c:crossAx val="4539929"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="85546381"/>
+        <c:axId val="75310859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7584,7 +7557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8226497"/>
+        <c:crossAx val="67812987"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7635,9 +7608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>533160</xdr:colOff>
+      <xdr:colOff>532800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7645,8 +7618,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8420040" y="2833560"/>
-        <a:ext cx="4695480" cy="2743560"/>
+        <a:off x="8267760" y="2833560"/>
+        <a:ext cx="4590360" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7680,8 +7653,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7162560" y="2805120"/>
-        <a:ext cx="4772160" cy="2727000"/>
+        <a:off x="7692840" y="2805120"/>
+        <a:ext cx="4657680" cy="2727000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7694,7 +7667,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
@@ -7710,8 +7683,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12372840" y="2828880"/>
-        <a:ext cx="4715280" cy="2727000"/>
+        <a:off x="12769920" y="2828880"/>
+        <a:ext cx="4629240" cy="2727000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7724,9 +7697,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -7740,8 +7713,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9888120" y="6001920"/>
-        <a:ext cx="4713840" cy="2725200"/>
+        <a:off x="10342440" y="6002280"/>
+        <a:ext cx="4627800" cy="2720880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7760,9 +7733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>804600</xdr:colOff>
+      <xdr:colOff>804240</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7770,8 +7743,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19526760" y="5180400"/>
-        <a:ext cx="4718520" cy="2784600"/>
+        <a:off x="19780920" y="5180400"/>
+        <a:ext cx="4670640" cy="2777400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7792,7 +7765,7 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>435240</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7800,8 +7773,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="24361920" y="5171760"/>
-        <a:ext cx="4714920" cy="2781360"/>
+        <a:off x="24558840" y="5171760"/>
+        <a:ext cx="4667040" cy="2774160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7814,7 +7787,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>123480</xdr:colOff>
+      <xdr:colOff>123840</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -7822,7 +7795,7 @@
       <xdr:col>40</xdr:col>
       <xdr:colOff>506520</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7830,8 +7803,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28765080" y="5155560"/>
-        <a:ext cx="4716720" cy="2788920"/>
+        <a:off x="28914480" y="5155560"/>
+        <a:ext cx="4668840" cy="2781720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7844,15 +7817,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>90000</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>24840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>470520</xdr:colOff>
+      <xdr:colOff>470160</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7860,8 +7833,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="33064920" y="5180400"/>
-        <a:ext cx="4714920" cy="2784600"/>
+        <a:off x="33166800" y="5180400"/>
+        <a:ext cx="4666680" cy="2777400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7874,13 +7847,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
+      <xdr:colOff>85680</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>77760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
@@ -7890,8 +7863,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14877360" y="5233320"/>
-        <a:ext cx="4731480" cy="2784600"/>
+        <a:off x="15226920" y="5233320"/>
+        <a:ext cx="4635720" cy="2778120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7904,13 +7877,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>610920</xdr:colOff>
+      <xdr:colOff>611280</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>166680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
@@ -7920,8 +7893,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="50588280" y="500040"/>
-        <a:ext cx="4799160" cy="2726640"/>
+        <a:off x="50471280" y="500040"/>
+        <a:ext cx="4741200" cy="2726640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7947,7 +7920,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8778,12 +8751,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9250,67 +9223,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF70"/>
+  <dimension ref="A1:BF94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N37" activeCellId="0" sqref="N37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="17" min="12" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="24" min="19" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="45" min="27" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="50" min="46" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="57" min="51" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="70" min="59" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="102" min="102" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="111" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.18877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.30612244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="17" min="12" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="24" min="19" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="45" min="27" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="50" min="46" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="57" min="51" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="70" min="59" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="102" min="102" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="111" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9322,7 +9299,7 @@
       <c r="B2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="28" t="n">
@@ -9340,7 +9317,7 @@
       <c r="H2" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="28" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="1"/>
@@ -9431,48 +9408,48 @@
       <c r="P3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="36" t="s">
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37" t="s">
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37" t="s">
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37" t="s">
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="38" t="s">
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AU3" s="38" t="s">
+      <c r="AU3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AV3" s="38" t="s">
+      <c r="AV3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AW3" s="38" t="s">
+      <c r="AW3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AX3" s="39" t="s">
+      <c r="AX3" s="37" t="s">
         <v>30</v>
       </c>
       <c r="AZ3" s="0" t="s">
@@ -9504,19 +9481,19 @@
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="40" t="n">
+      <c r="D4" s="38" t="n">
         <v>89.8514851485</v>
       </c>
-      <c r="E4" s="41" t="n">
+      <c r="E4" s="39" t="n">
         <v>93.1558935361</v>
       </c>
-      <c r="F4" s="41" t="n">
+      <c r="F4" s="39" t="n">
         <v>94.2196531792</v>
       </c>
-      <c r="G4" s="41" t="n">
+      <c r="G4" s="39" t="n">
         <v>95.7627118644</v>
       </c>
-      <c r="H4" s="42" t="n">
+      <c r="H4" s="40" t="n">
         <v>100</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -9525,19 +9502,19 @@
       <c r="K4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="43" t="n">
+      <c r="L4" s="10" t="n">
         <v>77.15055981492</v>
       </c>
-      <c r="M4" s="44" t="n">
+      <c r="M4" s="11" t="n">
         <v>81.51620937426</v>
       </c>
-      <c r="N4" s="44" t="n">
+      <c r="N4" s="11" t="n">
         <v>87.30066378918</v>
       </c>
-      <c r="O4" s="44" t="n">
+      <c r="O4" s="11" t="n">
         <v>90.23437272884</v>
       </c>
-      <c r="P4" s="45" t="n">
+      <c r="P4" s="41" t="n">
         <v>90.29178277202</v>
       </c>
       <c r="Y4" s="5" t="s">
@@ -9603,11 +9580,11 @@
       <c r="AS4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="47"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="43"/>
       <c r="AZ4" s="0" t="n">
         <v>-22.3</v>
       </c>
@@ -9638,19 +9615,19 @@
       <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="40" t="n">
+      <c r="D5" s="38" t="n">
         <v>76.1968085106</v>
       </c>
-      <c r="E5" s="41" t="n">
+      <c r="E5" s="39" t="n">
         <v>78.5850860421</v>
       </c>
-      <c r="F5" s="41" t="n">
+      <c r="F5" s="39" t="n">
         <v>91.7525773196</v>
       </c>
-      <c r="G5" s="41" t="n">
+      <c r="G5" s="39" t="n">
         <v>95.2054794521</v>
       </c>
-      <c r="H5" s="42" t="n">
+      <c r="H5" s="40" t="n">
         <v>95.5357142857</v>
       </c>
       <c r="I5" s="0" t="n">
@@ -9659,97 +9636,97 @@
       <c r="K5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="48" t="n">
+      <c r="L5" s="15" t="n">
         <v>79.40893165488</v>
       </c>
-      <c r="M5" s="49" t="n">
+      <c r="M5" s="16" t="n">
         <v>85.55155845986</v>
       </c>
-      <c r="N5" s="49" t="n">
+      <c r="N5" s="16" t="n">
         <v>90.33371069678</v>
       </c>
-      <c r="O5" s="49" t="n">
+      <c r="O5" s="16" t="n">
         <v>92.30131360732</v>
       </c>
-      <c r="P5" s="50" t="n">
+      <c r="P5" s="44" t="n">
         <v>95.17949779258</v>
       </c>
       <c r="Y5" s="9" t="n">
         <v>-24.05</v>
       </c>
-      <c r="Z5" s="43" t="n">
+      <c r="Z5" s="10" t="n">
         <v>75.2971137521</v>
       </c>
-      <c r="AA5" s="44" t="n">
+      <c r="AA5" s="11" t="n">
         <v>78.5973397823</v>
       </c>
-      <c r="AB5" s="44" t="n">
+      <c r="AB5" s="11" t="n">
         <v>82.4476650564</v>
       </c>
-      <c r="AC5" s="44" t="n">
+      <c r="AC5" s="11" t="n">
         <v>89.0063424947</v>
       </c>
-      <c r="AD5" s="51" t="n">
+      <c r="AD5" s="12" t="n">
         <v>89.6</v>
       </c>
-      <c r="AE5" s="49" t="n">
+      <c r="AE5" s="16" t="n">
         <v>77.6235906331</v>
       </c>
-      <c r="AF5" s="49" t="n">
+      <c r="AF5" s="16" t="n">
         <v>87.1890547264</v>
       </c>
-      <c r="AG5" s="49" t="n">
+      <c r="AG5" s="16" t="n">
         <v>95.4545454545</v>
       </c>
-      <c r="AH5" s="49" t="n">
+      <c r="AH5" s="16" t="n">
         <v>95.8515283843</v>
       </c>
-      <c r="AI5" s="49" t="n">
+      <c r="AI5" s="16" t="n">
         <v>99.1596638655</v>
       </c>
-      <c r="AJ5" s="43" t="n">
+      <c r="AJ5" s="10" t="n">
         <v>88.9589905363</v>
       </c>
-      <c r="AK5" s="44" t="n">
+      <c r="AK5" s="11" t="n">
         <v>93.7649880096</v>
       </c>
-      <c r="AL5" s="44" t="n">
+      <c r="AL5" s="11" t="n">
         <v>96.3898916968</v>
       </c>
-      <c r="AM5" s="44" t="n">
+      <c r="AM5" s="11" t="n">
         <v>97.628458498</v>
       </c>
-      <c r="AN5" s="51" t="n">
+      <c r="AN5" s="12" t="n">
         <v>98.9528795812</v>
       </c>
-      <c r="AO5" s="49" t="n">
+      <c r="AO5" s="16" t="n">
         <v>91.8331885317</v>
       </c>
-      <c r="AP5" s="49" t="n">
+      <c r="AP5" s="16" t="n">
         <v>88.0448318804</v>
       </c>
-      <c r="AQ5" s="49" t="n">
+      <c r="AQ5" s="16" t="n">
         <v>88.28125</v>
       </c>
-      <c r="AR5" s="49" t="n">
+      <c r="AR5" s="16" t="n">
         <v>87.5816993464</v>
       </c>
-      <c r="AS5" s="49" t="n">
+      <c r="AS5" s="16" t="n">
         <v>89.1666666667</v>
       </c>
-      <c r="AT5" s="52" t="n">
+      <c r="AT5" s="45" t="n">
         <v>83.4282208633</v>
       </c>
-      <c r="AU5" s="53" t="n">
+      <c r="AU5" s="46" t="n">
         <v>86.899053599675</v>
       </c>
-      <c r="AV5" s="52" t="n">
+      <c r="AV5" s="45" t="n">
         <v>90.643338051925</v>
       </c>
-      <c r="AW5" s="53" t="n">
+      <c r="AW5" s="46" t="n">
         <v>92.51700718085</v>
       </c>
-      <c r="AX5" s="54" t="n">
+      <c r="AX5" s="13" t="n">
         <v>94.21980252835</v>
       </c>
       <c r="AZ5" s="0" t="n">
@@ -9782,19 +9759,19 @@
       <c r="C6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="55" t="n">
+      <c r="D6" s="47" t="n">
         <v>90.0388098318</v>
       </c>
-      <c r="E6" s="56" t="n">
+      <c r="E6" s="48" t="n">
         <v>91.061452514</v>
       </c>
-      <c r="F6" s="56" t="n">
+      <c r="F6" s="48" t="n">
         <v>92.8753180662</v>
       </c>
-      <c r="G6" s="56" t="n">
+      <c r="G6" s="48" t="n">
         <v>94.2760942761</v>
       </c>
-      <c r="H6" s="57" t="n">
+      <c r="H6" s="49" t="n">
         <v>96.5367965368</v>
       </c>
       <c r="I6" s="0" t="n">
@@ -9803,97 +9780,97 @@
       <c r="K6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="48" t="n">
+      <c r="L6" s="15" t="n">
         <v>86.26397775406</v>
       </c>
-      <c r="M6" s="49" t="n">
+      <c r="M6" s="16" t="n">
         <v>91.70859073364</v>
       </c>
-      <c r="N6" s="49" t="n">
+      <c r="N6" s="16" t="n">
         <v>92.67523207893</v>
       </c>
-      <c r="O6" s="49" t="n">
+      <c r="O6" s="16" t="n">
         <v>95.30935009845</v>
       </c>
-      <c r="P6" s="50" t="n">
+      <c r="P6" s="44" t="n">
         <v>97.60899240399</v>
       </c>
       <c r="Y6" s="14" t="n">
         <v>-22.43</v>
       </c>
-      <c r="Z6" s="48" t="n">
+      <c r="Z6" s="15" t="n">
         <v>77.6551724138</v>
       </c>
-      <c r="AA6" s="49" t="n">
+      <c r="AA6" s="16" t="n">
         <v>82.9317269076</v>
       </c>
-      <c r="AB6" s="49" t="n">
+      <c r="AB6" s="16" t="n">
         <v>86.7768595041</v>
       </c>
-      <c r="AC6" s="49" t="n">
+      <c r="AC6" s="16" t="n">
         <v>83.7931034483</v>
       </c>
-      <c r="AD6" s="58" t="n">
+      <c r="AD6" s="17" t="n">
         <v>73.2941176471</v>
       </c>
-      <c r="AE6" s="49" t="n">
+      <c r="AE6" s="16" t="n">
         <v>86.3361547763</v>
       </c>
-      <c r="AF6" s="49" t="n">
+      <c r="AF6" s="16" t="n">
         <v>90.3114186851</v>
       </c>
-      <c r="AG6" s="49" t="n">
+      <c r="AG6" s="16" t="n">
         <v>98.3644859813</v>
       </c>
-      <c r="AH6" s="49" t="n">
+      <c r="AH6" s="16" t="n">
         <v>94.7852760736</v>
       </c>
-      <c r="AI6" s="49" t="n">
+      <c r="AI6" s="16" t="n">
         <v>97.6744186047</v>
       </c>
-      <c r="AJ6" s="48" t="n">
+      <c r="AJ6" s="15" t="n">
         <v>91.1057692308</v>
       </c>
-      <c r="AK6" s="49" t="n">
+      <c r="AK6" s="16" t="n">
         <v>92.5925925926</v>
       </c>
-      <c r="AL6" s="49" t="n">
+      <c r="AL6" s="16" t="n">
         <v>89.1891891892</v>
       </c>
-      <c r="AM6" s="49" t="n">
+      <c r="AM6" s="16" t="n">
         <v>98.4251968504</v>
       </c>
-      <c r="AN6" s="58" t="n">
+      <c r="AN6" s="17" t="n">
         <v>100</v>
       </c>
-      <c r="AO6" s="49" t="n">
+      <c r="AO6" s="16" t="n">
         <v>92.0833333333</v>
       </c>
-      <c r="AP6" s="49" t="n">
+      <c r="AP6" s="16" t="n">
         <v>89.1089108911</v>
       </c>
-      <c r="AQ6" s="49" t="n">
+      <c r="AQ6" s="16" t="n">
         <v>92.7807486631</v>
       </c>
-      <c r="AR6" s="49" t="n">
+      <c r="AR6" s="16" t="n">
         <v>90.5797101449</v>
       </c>
-      <c r="AS6" s="49" t="n">
+      <c r="AS6" s="16" t="n">
         <v>96.8181818182</v>
       </c>
-      <c r="AT6" s="59" t="n">
+      <c r="AT6" s="50" t="n">
         <v>86.79510743855</v>
       </c>
-      <c r="AU6" s="53" t="n">
+      <c r="AU6" s="46" t="n">
         <v>88.7361622691</v>
       </c>
-      <c r="AV6" s="59" t="n">
+      <c r="AV6" s="50" t="n">
         <v>91.777820834425</v>
       </c>
-      <c r="AW6" s="53" t="n">
+      <c r="AW6" s="46" t="n">
         <v>91.8958216293</v>
       </c>
-      <c r="AX6" s="60" t="n">
+      <c r="AX6" s="18" t="n">
         <v>91.9466795175</v>
       </c>
       <c r="AZ6" s="0" t="n">
@@ -9951,97 +9928,97 @@
       <c r="K7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="61" t="n">
+      <c r="L7" s="19" t="n">
         <v>88.78061370485</v>
       </c>
-      <c r="M7" s="62" t="n">
+      <c r="M7" s="20" t="n">
         <v>88.88025087108</v>
       </c>
-      <c r="N7" s="62" t="n">
+      <c r="N7" s="20" t="n">
         <v>89.96314247135</v>
       </c>
-      <c r="O7" s="62" t="n">
+      <c r="O7" s="20" t="n">
         <v>90.4234966701</v>
       </c>
-      <c r="P7" s="63" t="n">
+      <c r="P7" s="51" t="n">
         <v>92.77507946071</v>
       </c>
       <c r="Y7" s="14" t="n">
         <v>-22.3</v>
       </c>
-      <c r="Z7" s="48" t="n">
+      <c r="Z7" s="15" t="n">
         <v>84</v>
       </c>
-      <c r="AA7" s="49" t="n">
+      <c r="AA7" s="16" t="n">
         <v>88.622754491</v>
       </c>
-      <c r="AB7" s="49" t="n">
+      <c r="AB7" s="16" t="n">
         <v>94.1666666667</v>
       </c>
-      <c r="AC7" s="49" t="n">
+      <c r="AC7" s="16" t="n">
         <v>99.2957746479</v>
       </c>
-      <c r="AD7" s="58" t="n">
+      <c r="AD7" s="17" t="n">
         <v>99.0610328638</v>
       </c>
-      <c r="AE7" s="49" t="n">
+      <c r="AE7" s="16" t="n">
         <v>77.6551724138</v>
       </c>
-      <c r="AF7" s="49" t="n">
+      <c r="AF7" s="16" t="n">
         <v>90.8</v>
       </c>
-      <c r="AG7" s="49" t="n">
+      <c r="AG7" s="16" t="n">
         <v>94.3243243243</v>
       </c>
-      <c r="AH7" s="49" t="n">
+      <c r="AH7" s="16" t="n">
         <v>96.0288808664</v>
       </c>
-      <c r="AI7" s="49" t="n">
+      <c r="AI7" s="16" t="n">
         <v>99.0654205607</v>
       </c>
-      <c r="AJ7" s="48" t="n">
+      <c r="AJ7" s="15" t="n">
         <v>91.2529550827</v>
       </c>
-      <c r="AK7" s="49" t="n">
+      <c r="AK7" s="16" t="n">
         <v>93.8405797101</v>
       </c>
-      <c r="AL7" s="49" t="n">
+      <c r="AL7" s="16" t="n">
         <v>97.8494623656</v>
       </c>
-      <c r="AM7" s="49" t="n">
+      <c r="AM7" s="16" t="n">
         <v>98.3870967742</v>
       </c>
-      <c r="AN7" s="58" t="n">
+      <c r="AN7" s="17" t="n">
         <v>100</v>
       </c>
-      <c r="AO7" s="49" t="n">
+      <c r="AO7" s="16" t="n">
         <v>79.5977011494</v>
       </c>
-      <c r="AP7" s="49" t="n">
+      <c r="AP7" s="16" t="n">
         <v>88.4057971014</v>
       </c>
-      <c r="AQ7" s="49" t="n">
+      <c r="AQ7" s="16" t="n">
         <v>90.1685393258</v>
       </c>
-      <c r="AR7" s="49" t="n">
+      <c r="AR7" s="16" t="n">
         <v>93.1558935361</v>
       </c>
-      <c r="AS7" s="49" t="n">
+      <c r="AS7" s="16" t="n">
         <v>95.1923076923</v>
       </c>
-      <c r="AT7" s="59" t="n">
+      <c r="AT7" s="50" t="n">
         <v>83.126457161475</v>
       </c>
-      <c r="AU7" s="53" t="n">
+      <c r="AU7" s="46" t="n">
         <v>90.417282825625</v>
       </c>
-      <c r="AV7" s="59" t="n">
+      <c r="AV7" s="50" t="n">
         <v>94.1272481706</v>
       </c>
-      <c r="AW7" s="53" t="n">
+      <c r="AW7" s="46" t="n">
         <v>96.71691145615</v>
       </c>
-      <c r="AX7" s="60" t="n">
+      <c r="AX7" s="18" t="n">
         <v>98.3296902792</v>
       </c>
       <c r="AZ7" s="0" t="n">
@@ -10075,19 +10052,19 @@
       <c r="C8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="40" t="n">
+      <c r="D8" s="38" t="n">
         <v>75.1879699248</v>
       </c>
-      <c r="E8" s="41" t="n">
+      <c r="E8" s="39" t="n">
         <v>83.8709677419</v>
       </c>
-      <c r="F8" s="41" t="n">
+      <c r="F8" s="39" t="n">
         <v>86.3829787234</v>
       </c>
-      <c r="G8" s="41" t="n">
+      <c r="G8" s="39" t="n">
         <v>80</v>
       </c>
-      <c r="H8" s="42" t="n">
+      <c r="H8" s="40" t="n">
         <v>86.8613138686</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -10096,97 +10073,97 @@
       <c r="K8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="64" t="n">
+      <c r="L8" s="24" t="n">
         <v>82.9010207321775</v>
       </c>
-      <c r="M8" s="65" t="n">
+      <c r="M8" s="25" t="n">
         <v>86.91415235971</v>
       </c>
-      <c r="N8" s="65" t="n">
+      <c r="N8" s="25" t="n">
         <v>90.06818725906</v>
       </c>
-      <c r="O8" s="65" t="n">
+      <c r="O8" s="25" t="n">
         <v>92.0671332761775</v>
       </c>
-      <c r="P8" s="66" t="n">
+      <c r="P8" s="52" t="n">
         <v>93.963838107325</v>
       </c>
       <c r="Y8" s="14" t="n">
         <v>-22.11</v>
       </c>
-      <c r="Z8" s="48" t="n">
+      <c r="Z8" s="15" t="n">
         <v>75.595727198</v>
       </c>
-      <c r="AA8" s="49" t="n">
+      <c r="AA8" s="16" t="n">
         <v>83.1775700935</v>
       </c>
-      <c r="AB8" s="49" t="n">
+      <c r="AB8" s="16" t="n">
         <v>95.9183673469</v>
       </c>
-      <c r="AC8" s="49" t="n">
+      <c r="AC8" s="16" t="n">
         <v>87.9098360656</v>
       </c>
-      <c r="AD8" s="58" t="n">
+      <c r="AD8" s="17" t="n">
         <v>89.6373056995</v>
       </c>
-      <c r="AE8" s="49" t="n">
+      <c r="AE8" s="16" t="n">
         <v>76.6177739431</v>
       </c>
-      <c r="AF8" s="49" t="n">
+      <c r="AF8" s="16" t="n">
         <v>84.2944785276</v>
       </c>
-      <c r="AG8" s="49" t="n">
+      <c r="AG8" s="16" t="n">
         <v>85.9967051071</v>
       </c>
-      <c r="AH8" s="49" t="n">
+      <c r="AH8" s="16" t="n">
         <v>95.8874458874</v>
       </c>
-      <c r="AI8" s="49" t="n">
+      <c r="AI8" s="16" t="n">
         <v>95.8904109589</v>
       </c>
-      <c r="AJ8" s="48" t="n">
+      <c r="AJ8" s="15" t="n">
         <v>83.3099579243</v>
       </c>
-      <c r="AK8" s="49" t="n">
+      <c r="AK8" s="16" t="n">
         <v>92.600422833</v>
       </c>
-      <c r="AL8" s="49" t="n">
+      <c r="AL8" s="16" t="n">
         <v>92.4242424242</v>
       </c>
-      <c r="AM8" s="49" t="n">
+      <c r="AM8" s="16" t="n">
         <v>96.1206896552</v>
       </c>
-      <c r="AN8" s="58" t="n">
+      <c r="AN8" s="17" t="n">
         <v>97.6047904192</v>
       </c>
-      <c r="AO8" s="49" t="n">
+      <c r="AO8" s="16" t="n">
         <v>83.6025848142</v>
       </c>
-      <c r="AP8" s="49" t="n">
+      <c r="AP8" s="16" t="n">
         <v>82.6388888889</v>
       </c>
-      <c r="AQ8" s="49" t="n">
+      <c r="AQ8" s="16" t="n">
         <v>83.6990595611</v>
       </c>
-      <c r="AR8" s="49" t="n">
+      <c r="AR8" s="16" t="n">
         <v>89.1783567134</v>
       </c>
-      <c r="AS8" s="49" t="n">
+      <c r="AS8" s="16" t="n">
         <v>96.1340206186</v>
       </c>
-      <c r="AT8" s="59" t="n">
+      <c r="AT8" s="50" t="n">
         <v>79.7815109699</v>
       </c>
-      <c r="AU8" s="53" t="n">
+      <c r="AU8" s="46" t="n">
         <v>85.67784008575</v>
       </c>
-      <c r="AV8" s="59" t="n">
+      <c r="AV8" s="50" t="n">
         <v>89.509593609825</v>
       </c>
-      <c r="AW8" s="53" t="n">
+      <c r="AW8" s="46" t="n">
         <v>92.2740820804</v>
       </c>
-      <c r="AX8" s="60" t="n">
+      <c r="AX8" s="18" t="n">
         <v>94.81663192405</v>
       </c>
       <c r="AZ8" s="0" t="n">
@@ -10220,19 +10197,19 @@
       <c r="C9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="40" t="n">
+      <c r="D9" s="38" t="n">
         <v>71.2041884817</v>
       </c>
-      <c r="E9" s="41" t="n">
+      <c r="E9" s="39" t="n">
         <v>78.3582089552</v>
       </c>
-      <c r="F9" s="41" t="n">
+      <c r="F9" s="39" t="n">
         <v>79.552238806</v>
       </c>
-      <c r="G9" s="41" t="n">
+      <c r="G9" s="39" t="n">
         <v>89.7368421053</v>
       </c>
-      <c r="H9" s="42" t="n">
+      <c r="H9" s="40" t="n">
         <v>90.5325443787</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -10241,79 +10218,79 @@
       <c r="Y9" s="14" t="n">
         <v>-21.15</v>
       </c>
-      <c r="Z9" s="48" t="n">
+      <c r="Z9" s="15" t="n">
         <v>76.66015625</v>
       </c>
-      <c r="AA9" s="49" t="n">
+      <c r="AA9" s="16" t="n">
         <v>80.1120448179</v>
       </c>
-      <c r="AB9" s="49" t="n">
+      <c r="AB9" s="16" t="n">
         <v>89.6226415094</v>
       </c>
-      <c r="AC9" s="49" t="n">
+      <c r="AC9" s="16" t="n">
         <v>90.9535452323</v>
       </c>
-      <c r="AD9" s="58" t="n">
+      <c r="AD9" s="17" t="n">
         <v>95.3125</v>
       </c>
-      <c r="AE9" s="49" t="n">
+      <c r="AE9" s="16" t="n">
         <v>77.0916334661</v>
       </c>
-      <c r="AF9" s="49" t="n">
+      <c r="AF9" s="16" t="n">
         <v>84.2329545455</v>
       </c>
-      <c r="AG9" s="49" t="n">
+      <c r="AG9" s="16" t="n">
         <v>88.5057471264</v>
       </c>
-      <c r="AH9" s="49" t="n">
+      <c r="AH9" s="16" t="n">
         <v>91.2280701754</v>
       </c>
-      <c r="AI9" s="49" t="n">
+      <c r="AI9" s="16" t="n">
         <v>97.4522292994</v>
       </c>
-      <c r="AJ9" s="48" t="n">
+      <c r="AJ9" s="15" t="n">
         <v>85.8096828047</v>
       </c>
-      <c r="AK9" s="49" t="n">
+      <c r="AK9" s="16" t="n">
         <v>88.3248730964</v>
       </c>
-      <c r="AL9" s="49" t="n">
+      <c r="AL9" s="16" t="n">
         <v>91.2087912088</v>
       </c>
-      <c r="AM9" s="49" t="n">
+      <c r="AM9" s="16" t="n">
         <v>92.2680412371</v>
       </c>
-      <c r="AN9" s="58" t="n">
+      <c r="AN9" s="17" t="n">
         <v>97.037037037</v>
       </c>
-      <c r="AO9" s="49" t="n">
+      <c r="AO9" s="16" t="n">
         <v>90.0390625</v>
       </c>
-      <c r="AP9" s="49" t="n">
+      <c r="AP9" s="16" t="n">
         <v>87.675070028</v>
       </c>
-      <c r="AQ9" s="49" t="n">
+      <c r="AQ9" s="16" t="n">
         <v>89.0566037736</v>
       </c>
-      <c r="AR9" s="49" t="n">
+      <c r="AR9" s="16" t="n">
         <v>88.5085574572</v>
       </c>
-      <c r="AS9" s="49" t="n">
+      <c r="AS9" s="16" t="n">
         <v>90.625</v>
       </c>
-      <c r="AT9" s="59" t="n">
+      <c r="AT9" s="50" t="n">
         <v>82.4001337552</v>
       </c>
-      <c r="AU9" s="53" t="n">
+      <c r="AU9" s="46" t="n">
         <v>85.08623562195</v>
       </c>
-      <c r="AV9" s="59" t="n">
+      <c r="AV9" s="50" t="n">
         <v>89.59844590455</v>
       </c>
-      <c r="AW9" s="53" t="n">
+      <c r="AW9" s="46" t="n">
         <v>90.7395535255</v>
       </c>
-      <c r="AX9" s="60" t="n">
+      <c r="AX9" s="18" t="n">
         <v>95.1066915841</v>
       </c>
       <c r="AZ9" s="0" t="n">
@@ -10347,19 +10324,19 @@
       <c r="C10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="55" t="n">
+      <c r="D10" s="47" t="n">
         <v>79.6074154853</v>
       </c>
-      <c r="E10" s="56" t="n">
+      <c r="E10" s="48" t="n">
         <v>85.761589404</v>
       </c>
-      <c r="F10" s="56" t="n">
+      <c r="F10" s="48" t="n">
         <v>89.7959183673</v>
       </c>
-      <c r="G10" s="56" t="n">
+      <c r="G10" s="48" t="n">
         <v>94.262295082</v>
       </c>
-      <c r="H10" s="57" t="n">
+      <c r="H10" s="49" t="n">
         <v>96.2068965517</v>
       </c>
       <c r="I10" s="0" t="n">
@@ -10368,79 +10345,79 @@
       <c r="Y10" s="14" t="n">
         <v>-19.73</v>
       </c>
-      <c r="Z10" s="48" t="n">
+      <c r="Z10" s="15" t="n">
         <v>76.2148337596</v>
       </c>
-      <c r="AA10" s="49" t="n">
+      <c r="AA10" s="16" t="n">
         <v>76.7639902676</v>
       </c>
-      <c r="AB10" s="49" t="n">
+      <c r="AB10" s="16" t="n">
         <v>77.7597402597</v>
       </c>
-      <c r="AC10" s="49" t="n">
+      <c r="AC10" s="16" t="n">
         <v>83.9743589744</v>
       </c>
-      <c r="AD10" s="58" t="n">
+      <c r="AD10" s="17" t="n">
         <v>85.6756756757</v>
       </c>
-      <c r="AE10" s="49" t="n">
+      <c r="AE10" s="16" t="n">
         <v>73.5191637631</v>
       </c>
-      <c r="AF10" s="49" t="n">
+      <c r="AF10" s="16" t="n">
         <v>81.8523153942</v>
       </c>
-      <c r="AG10" s="49" t="n">
+      <c r="AG10" s="16" t="n">
         <v>89.3039049236</v>
       </c>
-      <c r="AH10" s="49" t="n">
+      <c r="AH10" s="16" t="n">
         <v>90.9492273731</v>
       </c>
-      <c r="AI10" s="49" t="n">
+      <c r="AI10" s="16" t="n">
         <v>96.3068181818</v>
       </c>
-      <c r="AJ10" s="48" t="n">
+      <c r="AJ10" s="15" t="n">
         <v>81.5580286169</v>
       </c>
-      <c r="AK10" s="49" t="n">
+      <c r="AK10" s="16" t="n">
         <v>89.8058252427</v>
       </c>
-      <c r="AL10" s="49" t="n">
+      <c r="AL10" s="16" t="n">
         <v>88.9705882353</v>
       </c>
-      <c r="AM10" s="49" t="n">
+      <c r="AM10" s="16" t="n">
         <v>98.9795918367</v>
       </c>
-      <c r="AN10" s="58" t="n">
+      <c r="AN10" s="17" t="n">
         <v>98.5185185185</v>
       </c>
-      <c r="AO10" s="49" t="n">
+      <c r="AO10" s="16" t="n">
         <v>91.797556719</v>
       </c>
-      <c r="AP10" s="49" t="n">
+      <c r="AP10" s="16" t="n">
         <v>90.2255639098</v>
       </c>
-      <c r="AQ10" s="49" t="n">
+      <c r="AQ10" s="16" t="n">
         <v>88.2252559727</v>
       </c>
-      <c r="AR10" s="49" t="n">
+      <c r="AR10" s="16" t="n">
         <v>86.3436123348</v>
       </c>
-      <c r="AS10" s="49" t="n">
+      <c r="AS10" s="16" t="n">
         <v>85.3521126761</v>
       </c>
-      <c r="AT10" s="59" t="n">
+      <c r="AT10" s="50" t="n">
         <v>80.77239571465</v>
       </c>
-      <c r="AU10" s="53" t="n">
+      <c r="AU10" s="46" t="n">
         <v>84.661923703575</v>
       </c>
-      <c r="AV10" s="59" t="n">
+      <c r="AV10" s="50" t="n">
         <v>86.064872347825</v>
       </c>
-      <c r="AW10" s="53" t="n">
+      <c r="AW10" s="46" t="n">
         <v>90.06169762975</v>
       </c>
-      <c r="AX10" s="60" t="n">
+      <c r="AX10" s="18" t="n">
         <v>91.463281263025</v>
       </c>
       <c r="AZ10" s="0" t="n">
@@ -10495,20 +10472,20 @@
       <c r="I11" s="0" t="n">
         <v>-14.4</v>
       </c>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67" t="s">
+      <c r="K11" s="53"/>
+      <c r="L11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="67" t="s">
+      <c r="M11" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="67" t="s">
+      <c r="O11" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="67" t="s">
+      <c r="P11" s="53" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="28" t="s">
@@ -10517,79 +10494,79 @@
       <c r="Y11" s="14" t="n">
         <v>-17.8</v>
       </c>
-      <c r="Z11" s="48" t="n">
+      <c r="Z11" s="15" t="n">
         <v>82.0422535211</v>
       </c>
-      <c r="AA11" s="49" t="n">
+      <c r="AA11" s="16" t="n">
         <v>88.3642495784</v>
       </c>
-      <c r="AB11" s="49" t="n">
+      <c r="AB11" s="16" t="n">
         <v>90.2272727273</v>
       </c>
-      <c r="AC11" s="49" t="n">
+      <c r="AC11" s="16" t="n">
         <v>94.4117647059</v>
       </c>
-      <c r="AD11" s="58" t="n">
+      <c r="AD11" s="17" t="n">
         <v>95.0381679389</v>
       </c>
-      <c r="AE11" s="49" t="n">
+      <c r="AE11" s="16" t="n">
         <v>82.318501171</v>
       </c>
-      <c r="AF11" s="49" t="n">
+      <c r="AF11" s="16" t="n">
         <v>87.9396984925</v>
       </c>
-      <c r="AG11" s="49" t="n">
+      <c r="AG11" s="16" t="n">
         <v>95.6818181818</v>
       </c>
-      <c r="AH11" s="49" t="n">
+      <c r="AH11" s="16" t="n">
         <v>98.2089552239</v>
       </c>
-      <c r="AI11" s="49" t="n">
+      <c r="AI11" s="16" t="n">
         <v>98.8549618321</v>
       </c>
-      <c r="AJ11" s="48" t="n">
+      <c r="AJ11" s="15" t="n">
         <v>86.4197530864</v>
       </c>
-      <c r="AK11" s="49" t="n">
+      <c r="AK11" s="16" t="n">
         <v>94.0625</v>
       </c>
-      <c r="AL11" s="49" t="n">
+      <c r="AL11" s="16" t="n">
         <v>96.3470319635</v>
       </c>
-      <c r="AM11" s="49" t="n">
+      <c r="AM11" s="16" t="n">
         <v>97.3154362416</v>
       </c>
-      <c r="AN11" s="58" t="n">
+      <c r="AN11" s="17" t="n">
         <v>99.0384615385</v>
       </c>
-      <c r="AO11" s="49" t="n">
+      <c r="AO11" s="16" t="n">
         <v>94.3970767357</v>
       </c>
-      <c r="AP11" s="49" t="n">
+      <c r="AP11" s="16" t="n">
         <v>92.2535211268</v>
       </c>
-      <c r="AQ11" s="49" t="n">
+      <c r="AQ11" s="16" t="n">
         <v>91.8465227818</v>
       </c>
-      <c r="AR11" s="49" t="n">
+      <c r="AR11" s="16" t="n">
         <v>88.3647798742</v>
       </c>
-      <c r="AS11" s="49" t="n">
+      <c r="AS11" s="16" t="n">
         <v>89.4308943089</v>
       </c>
-      <c r="AT11" s="59" t="n">
+      <c r="AT11" s="50" t="n">
         <v>86.29439612855</v>
       </c>
-      <c r="AU11" s="53" t="n">
+      <c r="AU11" s="46" t="n">
         <v>90.654992299425</v>
       </c>
-      <c r="AV11" s="59" t="n">
+      <c r="AV11" s="50" t="n">
         <v>93.5256614136</v>
       </c>
-      <c r="AW11" s="53" t="n">
+      <c r="AW11" s="46" t="n">
         <v>94.5752340114</v>
       </c>
-      <c r="AX11" s="60" t="n">
+      <c r="AX11" s="18" t="n">
         <v>95.5906214046</v>
       </c>
       <c r="AZ11" s="0" t="n">
@@ -10623,40 +10600,40 @@
       <c r="C12" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="40" t="n">
+      <c r="D12" s="38" t="n">
         <v>89.1851851852</v>
       </c>
-      <c r="E12" s="41" t="n">
+      <c r="E12" s="39" t="n">
         <v>95.067264574</v>
       </c>
-      <c r="F12" s="41" t="n">
+      <c r="F12" s="39" t="n">
         <v>93.7704918033</v>
       </c>
-      <c r="G12" s="41" t="n">
+      <c r="G12" s="39" t="n">
         <v>98.2062780269</v>
       </c>
-      <c r="H12" s="42" t="n">
+      <c r="H12" s="40" t="n">
         <v>98.0769230769</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>-14.4</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="69" t="n">
+      <c r="L12" s="0" t="n">
         <v>86.26397775406</v>
       </c>
-      <c r="M12" s="69" t="n">
+      <c r="M12" s="0" t="n">
         <v>91.70859073364</v>
       </c>
-      <c r="N12" s="69" t="n">
+      <c r="N12" s="0" t="n">
         <v>92.67523207893</v>
       </c>
-      <c r="O12" s="69" t="n">
+      <c r="O12" s="0" t="n">
         <v>95.30935009845</v>
       </c>
-      <c r="P12" s="69" t="n">
+      <c r="P12" s="0" t="n">
         <v>97.60899240399</v>
       </c>
       <c r="Q12" s="0" t="n">
@@ -10666,79 +10643,79 @@
       <c r="Y12" s="14" t="n">
         <v>-14.4</v>
       </c>
-      <c r="Z12" s="48" t="n">
+      <c r="Z12" s="15" t="n">
         <v>76.6393442623</v>
       </c>
-      <c r="AA12" s="49" t="n">
+      <c r="AA12" s="16" t="n">
         <v>79.649122807</v>
       </c>
-      <c r="AB12" s="49" t="n">
+      <c r="AB12" s="16" t="n">
         <v>84.7826086957</v>
       </c>
-      <c r="AC12" s="49" t="n">
+      <c r="AC12" s="16" t="n">
         <v>88.0566801619</v>
       </c>
-      <c r="AD12" s="58" t="n">
+      <c r="AD12" s="17" t="n">
         <v>89.2307692308</v>
       </c>
-      <c r="AE12" s="49" t="n">
+      <c r="AE12" s="16" t="n">
         <v>72.5871857259</v>
       </c>
-      <c r="AF12" s="49" t="n">
+      <c r="AF12" s="16" t="n">
         <v>80.4372842348</v>
       </c>
-      <c r="AG12" s="49" t="n">
+      <c r="AG12" s="16" t="n">
         <v>90.9090909091</v>
       </c>
-      <c r="AH12" s="49" t="n">
+      <c r="AH12" s="16" t="n">
         <v>95.1612903226</v>
       </c>
-      <c r="AI12" s="49" t="n">
+      <c r="AI12" s="16" t="n">
         <v>97.2151898734</v>
       </c>
-      <c r="AJ12" s="48" t="n">
+      <c r="AJ12" s="15" t="n">
         <v>89.1851851852</v>
       </c>
-      <c r="AK12" s="49" t="n">
+      <c r="AK12" s="16" t="n">
         <v>95.067264574</v>
       </c>
-      <c r="AL12" s="49" t="n">
+      <c r="AL12" s="16" t="n">
         <v>93.7704918033</v>
       </c>
-      <c r="AM12" s="49" t="n">
+      <c r="AM12" s="16" t="n">
         <v>98.2062780269</v>
       </c>
-      <c r="AN12" s="58" t="n">
+      <c r="AN12" s="17" t="n">
         <v>98.0769230769</v>
       </c>
-      <c r="AO12" s="49" t="n">
+      <c r="AO12" s="16" t="n">
         <v>94.8094079481</v>
       </c>
-      <c r="AP12" s="49" t="n">
+      <c r="AP12" s="16" t="n">
         <v>93.6268829664</v>
       </c>
-      <c r="AQ12" s="49" t="n">
+      <c r="AQ12" s="16" t="n">
         <v>92.9022082019</v>
       </c>
-      <c r="AR12" s="49" t="n">
+      <c r="AR12" s="16" t="n">
         <v>91.9839679359</v>
       </c>
-      <c r="AS12" s="49" t="n">
+      <c r="AS12" s="16" t="n">
         <v>92.2879177378</v>
       </c>
-      <c r="AT12" s="59" t="n">
+      <c r="AT12" s="50" t="n">
         <v>83.305280780375</v>
       </c>
-      <c r="AU12" s="53" t="n">
+      <c r="AU12" s="46" t="n">
         <v>87.19513864555</v>
       </c>
-      <c r="AV12" s="59" t="n">
+      <c r="AV12" s="50" t="n">
         <v>90.5910999025</v>
       </c>
-      <c r="AW12" s="53" t="n">
+      <c r="AW12" s="46" t="n">
         <v>93.352054111825</v>
       </c>
-      <c r="AX12" s="60" t="n">
+      <c r="AX12" s="18" t="n">
         <v>94.202699979725</v>
       </c>
       <c r="AZ12" s="0" t="n">
@@ -10772,40 +10749,40 @@
       <c r="C13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="40" t="n">
+      <c r="D13" s="38" t="n">
         <v>76.6393442623</v>
       </c>
-      <c r="E13" s="41" t="n">
+      <c r="E13" s="39" t="n">
         <v>79.649122807</v>
       </c>
-      <c r="F13" s="41" t="n">
+      <c r="F13" s="39" t="n">
         <v>84.7826086957</v>
       </c>
-      <c r="G13" s="41" t="n">
+      <c r="G13" s="39" t="n">
         <v>88.0566801619</v>
       </c>
-      <c r="H13" s="42" t="n">
+      <c r="H13" s="40" t="n">
         <v>89.2307692308</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>-14.4</v>
       </c>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="69" t="n">
+      <c r="L13" s="0" t="n">
         <v>88.78061370485</v>
       </c>
-      <c r="M13" s="69" t="n">
+      <c r="M13" s="0" t="n">
         <v>88.88025087108</v>
       </c>
-      <c r="N13" s="69" t="n">
+      <c r="N13" s="0" t="n">
         <v>89.96314247135</v>
       </c>
-      <c r="O13" s="69" t="n">
+      <c r="O13" s="0" t="n">
         <v>90.4234966701</v>
       </c>
-      <c r="P13" s="69" t="n">
+      <c r="P13" s="0" t="n">
         <v>92.77507946071</v>
       </c>
       <c r="Q13" s="0" t="n">
@@ -10815,79 +10792,79 @@
       <c r="Y13" s="14" t="n">
         <v>-9.76</v>
       </c>
-      <c r="Z13" s="48" t="n">
+      <c r="Z13" s="15" t="n">
         <v>71.2041884817</v>
       </c>
-      <c r="AA13" s="49" t="n">
+      <c r="AA13" s="16" t="n">
         <v>78.3582089552</v>
       </c>
-      <c r="AB13" s="49" t="n">
+      <c r="AB13" s="16" t="n">
         <v>79.552238806</v>
       </c>
-      <c r="AC13" s="49" t="n">
+      <c r="AC13" s="16" t="n">
         <v>89.7368421053</v>
       </c>
-      <c r="AD13" s="58" t="n">
+      <c r="AD13" s="17" t="n">
         <v>90.5325443787</v>
       </c>
-      <c r="AE13" s="49" t="n">
+      <c r="AE13" s="16" t="n">
         <v>72.1627408994</v>
       </c>
-      <c r="AF13" s="49" t="n">
+      <c r="AF13" s="16" t="n">
         <v>70.2127659574</v>
       </c>
-      <c r="AG13" s="49" t="n">
+      <c r="AG13" s="16" t="n">
         <v>65.9955257271</v>
       </c>
-      <c r="AH13" s="49" t="n">
+      <c r="AH13" s="16" t="n">
         <v>66.4652567976</v>
       </c>
-      <c r="AI13" s="49" t="n">
+      <c r="AI13" s="16" t="n">
         <v>71.3855421687</v>
       </c>
-      <c r="AJ13" s="48" t="n">
+      <c r="AJ13" s="15" t="n">
         <v>75.1879699248</v>
       </c>
-      <c r="AK13" s="49" t="n">
+      <c r="AK13" s="16" t="n">
         <v>83.8709677419</v>
       </c>
-      <c r="AL13" s="49" t="n">
+      <c r="AL13" s="16" t="n">
         <v>86.3829787234</v>
       </c>
-      <c r="AM13" s="49" t="n">
+      <c r="AM13" s="16" t="n">
         <v>80</v>
       </c>
-      <c r="AN13" s="58" t="n">
+      <c r="AN13" s="17" t="n">
         <v>86.8613138686</v>
       </c>
-      <c r="AO13" s="49" t="n">
+      <c r="AO13" s="16" t="n">
         <v>79.6074154853</v>
       </c>
-      <c r="AP13" s="49" t="n">
+      <c r="AP13" s="16" t="n">
         <v>85.761589404</v>
       </c>
-      <c r="AQ13" s="49" t="n">
+      <c r="AQ13" s="16" t="n">
         <v>89.7959183673</v>
       </c>
-      <c r="AR13" s="49" t="n">
+      <c r="AR13" s="16" t="n">
         <v>94.262295082</v>
       </c>
-      <c r="AS13" s="49" t="n">
+      <c r="AS13" s="16" t="n">
         <v>96.2068965517</v>
       </c>
-      <c r="AT13" s="59" t="n">
+      <c r="AT13" s="50" t="n">
         <v>74.5405786978</v>
       </c>
-      <c r="AU13" s="53" t="n">
+      <c r="AU13" s="46" t="n">
         <v>79.550883014625</v>
       </c>
-      <c r="AV13" s="59" t="n">
+      <c r="AV13" s="50" t="n">
         <v>80.43166540595</v>
       </c>
-      <c r="AW13" s="53" t="n">
+      <c r="AW13" s="46" t="n">
         <v>82.616098496225</v>
       </c>
-      <c r="AX13" s="60" t="n">
+      <c r="AX13" s="18" t="n">
         <v>86.246574241925</v>
       </c>
       <c r="AZ13" s="0" t="n">
@@ -10921,40 +10898,40 @@
       <c r="C14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="55" t="n">
+      <c r="D14" s="47" t="n">
         <v>94.8094079481</v>
       </c>
-      <c r="E14" s="56" t="n">
+      <c r="E14" s="48" t="n">
         <v>93.6268829664</v>
       </c>
-      <c r="F14" s="56" t="n">
+      <c r="F14" s="48" t="n">
         <v>92.9022082019</v>
       </c>
-      <c r="G14" s="56" t="n">
+      <c r="G14" s="48" t="n">
         <v>91.9839679359</v>
       </c>
-      <c r="H14" s="57" t="n">
+      <c r="H14" s="49" t="n">
         <v>92.2879177378</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>-14.4</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="K14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="69" t="n">
+      <c r="L14" s="0" t="n">
         <v>79.40893165488</v>
       </c>
-      <c r="M14" s="69" t="n">
+      <c r="M14" s="0" t="n">
         <v>85.55155845986</v>
       </c>
-      <c r="N14" s="69" t="n">
+      <c r="N14" s="0" t="n">
         <v>90.33371069678</v>
       </c>
-      <c r="O14" s="69" t="n">
+      <c r="O14" s="0" t="n">
         <v>92.30131360732</v>
       </c>
-      <c r="P14" s="69" t="n">
+      <c r="P14" s="0" t="n">
         <v>95.17949779258</v>
       </c>
       <c r="Q14" s="0" t="n">
@@ -10964,79 +10941,79 @@
       <c r="Y14" s="14" t="n">
         <v>-4.78</v>
       </c>
-      <c r="Z14" s="61" t="n">
+      <c r="Z14" s="19" t="n">
         <v>76.1968085106</v>
       </c>
-      <c r="AA14" s="62" t="n">
+      <c r="AA14" s="20" t="n">
         <v>78.5850860421</v>
       </c>
-      <c r="AB14" s="62" t="n">
+      <c r="AB14" s="20" t="n">
         <v>91.7525773196</v>
       </c>
-      <c r="AC14" s="62" t="n">
+      <c r="AC14" s="20" t="n">
         <v>95.2054794521</v>
       </c>
-      <c r="AD14" s="70" t="n">
+      <c r="AD14" s="21" t="n">
         <v>95.5357142857</v>
       </c>
-      <c r="AE14" s="49" t="n">
+      <c r="AE14" s="16" t="n">
         <v>98.177399757</v>
       </c>
-      <c r="AF14" s="49" t="n">
+      <c r="AF14" s="16" t="n">
         <v>98.2456140351</v>
       </c>
-      <c r="AG14" s="49" t="n">
+      <c r="AG14" s="16" t="n">
         <v>98.8009592326</v>
       </c>
-      <c r="AH14" s="49" t="n">
+      <c r="AH14" s="16" t="n">
         <v>98.4472049689</v>
       </c>
-      <c r="AI14" s="49" t="n">
+      <c r="AI14" s="16" t="n">
         <v>98.7903225806</v>
       </c>
-      <c r="AJ14" s="61" t="n">
+      <c r="AJ14" s="19" t="n">
         <v>89.8514851485</v>
       </c>
-      <c r="AK14" s="62" t="n">
+      <c r="AK14" s="20" t="n">
         <v>93.1558935361</v>
       </c>
-      <c r="AL14" s="62" t="n">
+      <c r="AL14" s="20" t="n">
         <v>94.2196531792</v>
       </c>
-      <c r="AM14" s="62" t="n">
+      <c r="AM14" s="20" t="n">
         <v>95.7627118644</v>
       </c>
-      <c r="AN14" s="70" t="n">
+      <c r="AN14" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="AO14" s="49" t="n">
+      <c r="AO14" s="16" t="n">
         <v>90.0388098318</v>
       </c>
-      <c r="AP14" s="49" t="n">
+      <c r="AP14" s="16" t="n">
         <v>91.061452514</v>
       </c>
-      <c r="AQ14" s="49" t="n">
+      <c r="AQ14" s="16" t="n">
         <v>92.8753180662</v>
       </c>
-      <c r="AR14" s="49" t="n">
+      <c r="AR14" s="16" t="n">
         <v>94.2760942761</v>
       </c>
-      <c r="AS14" s="49" t="n">
+      <c r="AS14" s="16" t="n">
         <v>96.5367965368</v>
       </c>
-      <c r="AT14" s="71" t="n">
+      <c r="AT14" s="55" t="n">
         <v>88.566125811975</v>
       </c>
-      <c r="AU14" s="53" t="n">
+      <c r="AU14" s="46" t="n">
         <v>90.262011531825</v>
       </c>
-      <c r="AV14" s="71" t="n">
+      <c r="AV14" s="55" t="n">
         <v>94.4121269494</v>
       </c>
-      <c r="AW14" s="53" t="n">
+      <c r="AW14" s="46" t="n">
         <v>95.922872640375</v>
       </c>
-      <c r="AX14" s="72" t="n">
+      <c r="AX14" s="22" t="n">
         <v>97.715708350775</v>
       </c>
     </row>
@@ -11069,22 +11046,22 @@
       <c r="I15" s="0" t="n">
         <v>-17.8</v>
       </c>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="69" t="n">
+      <c r="L15" s="0" t="n">
         <v>77.15055981492</v>
       </c>
-      <c r="M15" s="69" t="n">
+      <c r="M15" s="0" t="n">
         <v>81.51620937426</v>
       </c>
-      <c r="N15" s="69" t="n">
+      <c r="N15" s="0" t="n">
         <v>87.30066378918</v>
       </c>
-      <c r="O15" s="69" t="n">
+      <c r="O15" s="0" t="n">
         <v>90.23437272884</v>
       </c>
-      <c r="P15" s="69" t="n">
+      <c r="P15" s="0" t="n">
         <v>90.29178277202</v>
       </c>
       <c r="Q15" s="0" t="n">
@@ -11094,79 +11071,79 @@
       <c r="Y15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Z15" s="64" t="n">
+      <c r="Z15" s="24" t="n">
         <v>77.15055981492</v>
       </c>
-      <c r="AA15" s="65" t="n">
+      <c r="AA15" s="25" t="n">
         <v>81.51620937426</v>
       </c>
-      <c r="AB15" s="65" t="n">
+      <c r="AB15" s="25" t="n">
         <v>87.30066378918</v>
       </c>
-      <c r="AC15" s="65" t="n">
+      <c r="AC15" s="25" t="n">
         <v>90.23437272884</v>
       </c>
-      <c r="AD15" s="73" t="n">
+      <c r="AD15" s="26" t="n">
         <v>90.29178277202</v>
       </c>
-      <c r="AE15" s="64" t="n">
+      <c r="AE15" s="24" t="n">
         <v>79.40893165488</v>
       </c>
-      <c r="AF15" s="65" t="n">
+      <c r="AF15" s="25" t="n">
         <v>85.55155845986</v>
       </c>
-      <c r="AG15" s="65" t="n">
+      <c r="AG15" s="25" t="n">
         <v>90.33371069678</v>
       </c>
-      <c r="AH15" s="65" t="n">
+      <c r="AH15" s="25" t="n">
         <v>92.30131360732</v>
       </c>
-      <c r="AI15" s="73" t="n">
+      <c r="AI15" s="26" t="n">
         <v>95.17949779258</v>
       </c>
-      <c r="AJ15" s="64" t="n">
+      <c r="AJ15" s="24" t="n">
         <v>86.26397775406</v>
       </c>
-      <c r="AK15" s="65" t="n">
+      <c r="AK15" s="25" t="n">
         <v>91.70859073364</v>
       </c>
-      <c r="AL15" s="65" t="n">
+      <c r="AL15" s="25" t="n">
         <v>92.67523207893</v>
       </c>
-      <c r="AM15" s="65" t="n">
+      <c r="AM15" s="25" t="n">
         <v>95.30935009845</v>
       </c>
-      <c r="AN15" s="73" t="n">
+      <c r="AN15" s="26" t="n">
         <v>97.60899240399</v>
       </c>
-      <c r="AO15" s="64" t="n">
+      <c r="AO15" s="24" t="n">
         <v>88.78061370485</v>
       </c>
-      <c r="AP15" s="65" t="n">
+      <c r="AP15" s="25" t="n">
         <v>88.88025087108</v>
       </c>
-      <c r="AQ15" s="65" t="n">
+      <c r="AQ15" s="25" t="n">
         <v>89.96314247135</v>
       </c>
-      <c r="AR15" s="65" t="n">
+      <c r="AR15" s="25" t="n">
         <v>90.4234966701</v>
       </c>
-      <c r="AS15" s="73" t="n">
+      <c r="AS15" s="26" t="n">
         <v>92.77507946071</v>
       </c>
-      <c r="AT15" s="74" t="n">
+      <c r="AT15" s="56" t="n">
         <v>82.9010207321775</v>
       </c>
-      <c r="AU15" s="74" t="n">
+      <c r="AU15" s="56" t="n">
         <v>86.91415235971</v>
       </c>
-      <c r="AV15" s="74" t="n">
+      <c r="AV15" s="56" t="n">
         <v>90.06818725906</v>
       </c>
-      <c r="AW15" s="74" t="n">
+      <c r="AW15" s="56" t="n">
         <v>92.0671332761775</v>
       </c>
-      <c r="AX15" s="75" t="n">
+      <c r="AX15" s="27" t="n">
         <v>93.963838107325</v>
       </c>
     </row>
@@ -11178,19 +11155,19 @@
       <c r="C16" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="40" t="n">
+      <c r="D16" s="38" t="n">
         <v>86.4197530864</v>
       </c>
-      <c r="E16" s="41" t="n">
+      <c r="E16" s="39" t="n">
         <v>94.0625</v>
       </c>
-      <c r="F16" s="41" t="n">
+      <c r="F16" s="39" t="n">
         <v>96.3470319635</v>
       </c>
-      <c r="G16" s="41" t="n">
+      <c r="G16" s="39" t="n">
         <v>97.3154362416</v>
       </c>
-      <c r="H16" s="42" t="n">
+      <c r="H16" s="40" t="n">
         <v>99.0384615385</v>
       </c>
       <c r="I16" s="0" t="n">
@@ -11205,19 +11182,19 @@
       <c r="C17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="40" t="n">
+      <c r="D17" s="38" t="n">
         <v>82.0422535211</v>
       </c>
-      <c r="E17" s="41" t="n">
+      <c r="E17" s="39" t="n">
         <v>88.3642495784</v>
       </c>
-      <c r="F17" s="41" t="n">
+      <c r="F17" s="39" t="n">
         <v>90.2272727273</v>
       </c>
-      <c r="G17" s="41" t="n">
+      <c r="G17" s="39" t="n">
         <v>94.4117647059</v>
       </c>
-      <c r="H17" s="42" t="n">
+      <c r="H17" s="40" t="n">
         <v>95.0381679389</v>
       </c>
       <c r="I17" s="0" t="n">
@@ -11232,19 +11209,19 @@
       <c r="C18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="55" t="n">
+      <c r="D18" s="47" t="n">
         <v>94.3970767357</v>
       </c>
-      <c r="E18" s="56" t="n">
+      <c r="E18" s="48" t="n">
         <v>92.2535211268</v>
       </c>
-      <c r="F18" s="56" t="n">
+      <c r="F18" s="48" t="n">
         <v>91.8465227818</v>
       </c>
-      <c r="G18" s="56" t="n">
+      <c r="G18" s="48" t="n">
         <v>88.3647798742</v>
       </c>
-      <c r="H18" s="57" t="n">
+      <c r="H18" s="49" t="n">
         <v>89.4308943089</v>
       </c>
       <c r="I18" s="0" t="n">
@@ -11364,19 +11341,19 @@
       <c r="C20" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="40" t="n">
+      <c r="D20" s="38" t="n">
         <v>81.5580286169</v>
       </c>
-      <c r="E20" s="41" t="n">
+      <c r="E20" s="39" t="n">
         <v>89.8058252427</v>
       </c>
-      <c r="F20" s="41" t="n">
+      <c r="F20" s="39" t="n">
         <v>88.9705882353</v>
       </c>
-      <c r="G20" s="41" t="n">
+      <c r="G20" s="39" t="n">
         <v>98.9795918367</v>
       </c>
-      <c r="H20" s="42" t="n">
+      <c r="H20" s="40" t="n">
         <v>98.5185185185</v>
       </c>
       <c r="I20" s="0" t="n">
@@ -11454,19 +11431,19 @@
       <c r="C21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="40" t="n">
+      <c r="D21" s="38" t="n">
         <v>76.2148337596</v>
       </c>
-      <c r="E21" s="41" t="n">
+      <c r="E21" s="39" t="n">
         <v>76.7639902676</v>
       </c>
-      <c r="F21" s="41" t="n">
+      <c r="F21" s="39" t="n">
         <v>77.7597402597</v>
       </c>
-      <c r="G21" s="41" t="n">
+      <c r="G21" s="39" t="n">
         <v>83.9743589744</v>
       </c>
-      <c r="H21" s="42" t="n">
+      <c r="H21" s="40" t="n">
         <v>85.6756756757</v>
       </c>
       <c r="I21" s="0" t="n">
@@ -11544,19 +11521,19 @@
       <c r="C22" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="55" t="n">
+      <c r="D22" s="47" t="n">
         <v>91.797556719</v>
       </c>
-      <c r="E22" s="56" t="n">
+      <c r="E22" s="48" t="n">
         <v>90.2255639098</v>
       </c>
-      <c r="F22" s="56" t="n">
+      <c r="F22" s="48" t="n">
         <v>88.2252559727</v>
       </c>
-      <c r="G22" s="56" t="n">
+      <c r="G22" s="48" t="n">
         <v>86.3436123348</v>
       </c>
-      <c r="H22" s="57" t="n">
+      <c r="H22" s="49" t="n">
         <v>85.3521126761</v>
       </c>
       <c r="I22" s="0" t="n">
@@ -11731,19 +11708,19 @@
       <c r="C24" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="40" t="n">
+      <c r="D24" s="38" t="n">
         <v>85.8096828047</v>
       </c>
-      <c r="E24" s="41" t="n">
+      <c r="E24" s="39" t="n">
         <v>88.3248730964</v>
       </c>
-      <c r="F24" s="41" t="n">
+      <c r="F24" s="39" t="n">
         <v>91.2087912088</v>
       </c>
-      <c r="G24" s="41" t="n">
+      <c r="G24" s="39" t="n">
         <v>92.2680412371</v>
       </c>
-      <c r="H24" s="42" t="n">
+      <c r="H24" s="40" t="n">
         <v>97.037037037</v>
       </c>
       <c r="I24" s="0" t="n">
@@ -11821,19 +11798,19 @@
       <c r="C25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="40" t="n">
+      <c r="D25" s="38" t="n">
         <v>76.66015625</v>
       </c>
-      <c r="E25" s="41" t="n">
+      <c r="E25" s="39" t="n">
         <v>80.1120448179</v>
       </c>
-      <c r="F25" s="41" t="n">
+      <c r="F25" s="39" t="n">
         <v>89.6226415094</v>
       </c>
-      <c r="G25" s="41" t="n">
+      <c r="G25" s="39" t="n">
         <v>90.9535452323</v>
       </c>
-      <c r="H25" s="42" t="n">
+      <c r="H25" s="40" t="n">
         <v>95.3125</v>
       </c>
       <c r="I25" s="0" t="n">
@@ -11911,19 +11888,19 @@
       <c r="C26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="55" t="n">
+      <c r="D26" s="47" t="n">
         <v>90.0390625</v>
       </c>
-      <c r="E26" s="56" t="n">
+      <c r="E26" s="48" t="n">
         <v>87.675070028</v>
       </c>
-      <c r="F26" s="56" t="n">
+      <c r="F26" s="48" t="n">
         <v>89.0566037736</v>
       </c>
-      <c r="G26" s="56" t="n">
+      <c r="G26" s="48" t="n">
         <v>88.5085574572</v>
       </c>
-      <c r="H26" s="57" t="n">
+      <c r="H26" s="49" t="n">
         <v>90.625</v>
       </c>
       <c r="I26" s="0" t="n">
@@ -12094,19 +12071,19 @@
       <c r="C28" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="40" t="n">
+      <c r="D28" s="38" t="n">
         <v>83.3099579243</v>
       </c>
-      <c r="E28" s="41" t="n">
+      <c r="E28" s="39" t="n">
         <v>92.600422833</v>
       </c>
-      <c r="F28" s="41" t="n">
+      <c r="F28" s="39" t="n">
         <v>92.4242424242</v>
       </c>
-      <c r="G28" s="41" t="n">
+      <c r="G28" s="39" t="n">
         <v>96.1206896552</v>
       </c>
-      <c r="H28" s="42" t="n">
+      <c r="H28" s="40" t="n">
         <v>97.6047904192</v>
       </c>
       <c r="I28" s="0" t="n">
@@ -12184,19 +12161,19 @@
       <c r="C29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="40" t="n">
+      <c r="D29" s="38" t="n">
         <v>75.595727198</v>
       </c>
-      <c r="E29" s="41" t="n">
+      <c r="E29" s="39" t="n">
         <v>83.1775700935</v>
       </c>
-      <c r="F29" s="41" t="n">
+      <c r="F29" s="39" t="n">
         <v>95.9183673469</v>
       </c>
-      <c r="G29" s="41" t="n">
+      <c r="G29" s="39" t="n">
         <v>87.9098360656</v>
       </c>
-      <c r="H29" s="42" t="n">
+      <c r="H29" s="40" t="n">
         <v>89.6373056995</v>
       </c>
       <c r="I29" s="0" t="n">
@@ -12274,19 +12251,19 @@
       <c r="C30" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="55" t="n">
+      <c r="D30" s="47" t="n">
         <v>83.6025848142</v>
       </c>
-      <c r="E30" s="56" t="n">
+      <c r="E30" s="48" t="n">
         <v>82.6388888889</v>
       </c>
-      <c r="F30" s="56" t="n">
+      <c r="F30" s="48" t="n">
         <v>83.6990595611</v>
       </c>
-      <c r="G30" s="56" t="n">
+      <c r="G30" s="48" t="n">
         <v>89.1783567134</v>
       </c>
-      <c r="H30" s="57" t="n">
+      <c r="H30" s="49" t="n">
         <v>96.1340206186</v>
       </c>
       <c r="I30" s="0" t="n">
@@ -12331,19 +12308,19 @@
       <c r="C32" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="40" t="n">
+      <c r="D32" s="38" t="n">
         <v>91.2529550827</v>
       </c>
-      <c r="E32" s="41" t="n">
+      <c r="E32" s="39" t="n">
         <v>93.8405797101</v>
       </c>
-      <c r="F32" s="41" t="n">
+      <c r="F32" s="39" t="n">
         <v>97.8494623656</v>
       </c>
-      <c r="G32" s="41" t="n">
+      <c r="G32" s="39" t="n">
         <v>98.3870967742</v>
       </c>
-      <c r="H32" s="42" t="n">
+      <c r="H32" s="40" t="n">
         <v>100</v>
       </c>
       <c r="I32" s="0" t="n">
@@ -12358,19 +12335,19 @@
       <c r="C33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="40" t="n">
+      <c r="D33" s="38" t="n">
         <v>84</v>
       </c>
-      <c r="E33" s="41" t="n">
+      <c r="E33" s="39" t="n">
         <v>88.622754491</v>
       </c>
-      <c r="F33" s="41" t="n">
+      <c r="F33" s="39" t="n">
         <v>94.1666666667</v>
       </c>
-      <c r="G33" s="41" t="n">
+      <c r="G33" s="39" t="n">
         <v>99.2957746479</v>
       </c>
-      <c r="H33" s="42" t="n">
+      <c r="H33" s="40" t="n">
         <v>99.0610328638</v>
       </c>
       <c r="I33" s="0" t="n">
@@ -12385,19 +12362,19 @@
       <c r="C34" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="55" t="n">
+      <c r="D34" s="47" t="n">
         <v>79.5977011494</v>
       </c>
-      <c r="E34" s="56" t="n">
+      <c r="E34" s="48" t="n">
         <v>88.4057971014</v>
       </c>
-      <c r="F34" s="56" t="n">
+      <c r="F34" s="48" t="n">
         <v>90.1685393258</v>
       </c>
-      <c r="G34" s="56" t="n">
+      <c r="G34" s="48" t="n">
         <v>93.1558935361</v>
       </c>
-      <c r="H34" s="57" t="n">
+      <c r="H34" s="49" t="n">
         <v>95.1923076923</v>
       </c>
       <c r="I34" s="0" t="n">
@@ -12448,19 +12425,19 @@
       <c r="C36" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="40" t="n">
+      <c r="D36" s="38" t="n">
         <v>91.1057692308</v>
       </c>
-      <c r="E36" s="41" t="n">
+      <c r="E36" s="39" t="n">
         <v>92.5925925926</v>
       </c>
-      <c r="F36" s="41" t="n">
+      <c r="F36" s="39" t="n">
         <v>89.1891891892</v>
       </c>
-      <c r="G36" s="41" t="n">
+      <c r="G36" s="39" t="n">
         <v>98.4251968504</v>
       </c>
-      <c r="H36" s="42" t="n">
+      <c r="H36" s="40" t="n">
         <v>100</v>
       </c>
       <c r="I36" s="0" t="n">
@@ -12475,19 +12452,19 @@
       <c r="C37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="40" t="n">
+      <c r="D37" s="38" t="n">
         <v>77.6551724138</v>
       </c>
-      <c r="E37" s="41" t="n">
+      <c r="E37" s="39" t="n">
         <v>82.9317269076</v>
       </c>
-      <c r="F37" s="41" t="n">
+      <c r="F37" s="39" t="n">
         <v>86.7768595041</v>
       </c>
-      <c r="G37" s="41" t="n">
+      <c r="G37" s="39" t="n">
         <v>83.7931034483</v>
       </c>
-      <c r="H37" s="42" t="n">
+      <c r="H37" s="40" t="n">
         <v>73.2941176471</v>
       </c>
       <c r="I37" s="0" t="n">
@@ -12502,19 +12479,19 @@
       <c r="C38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="55" t="n">
+      <c r="D38" s="47" t="n">
         <v>92.0833333333</v>
       </c>
-      <c r="E38" s="56" t="n">
+      <c r="E38" s="48" t="n">
         <v>89.1089108911</v>
       </c>
-      <c r="F38" s="56" t="n">
+      <c r="F38" s="48" t="n">
         <v>92.7807486631</v>
       </c>
-      <c r="G38" s="56" t="n">
+      <c r="G38" s="48" t="n">
         <v>90.5797101449</v>
       </c>
-      <c r="H38" s="57" t="n">
+      <c r="H38" s="49" t="n">
         <v>96.8181818182</v>
       </c>
       <c r="I38" s="0" t="n">
@@ -12559,19 +12536,19 @@
       <c r="C40" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="40" t="n">
+      <c r="D40" s="38" t="n">
         <v>88.9589905363</v>
       </c>
-      <c r="E40" s="41" t="n">
+      <c r="E40" s="39" t="n">
         <v>93.7649880096</v>
       </c>
-      <c r="F40" s="41" t="n">
+      <c r="F40" s="39" t="n">
         <v>96.3898916968</v>
       </c>
-      <c r="G40" s="41" t="n">
+      <c r="G40" s="39" t="n">
         <v>97.628458498</v>
       </c>
-      <c r="H40" s="42" t="n">
+      <c r="H40" s="40" t="n">
         <v>98.9528795812</v>
       </c>
       <c r="I40" s="0" t="n">
@@ -12586,19 +12563,19 @@
       <c r="C41" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="40" t="n">
+      <c r="D41" s="38" t="n">
         <v>75.2971137521</v>
       </c>
-      <c r="E41" s="41" t="n">
+      <c r="E41" s="39" t="n">
         <v>78.5973397823</v>
       </c>
-      <c r="F41" s="41" t="n">
+      <c r="F41" s="39" t="n">
         <v>82.4476650564</v>
       </c>
-      <c r="G41" s="41" t="n">
+      <c r="G41" s="39" t="n">
         <v>89.0063424947</v>
       </c>
-      <c r="H41" s="42" t="n">
+      <c r="H41" s="40" t="n">
         <v>89.6</v>
       </c>
       <c r="I41" s="0" t="n">
@@ -12613,540 +12590,917 @@
       <c r="C42" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="55" t="n">
+      <c r="D42" s="47" t="n">
         <v>91.8331885317</v>
       </c>
-      <c r="E42" s="56" t="n">
+      <c r="E42" s="48" t="n">
         <v>88.0448318804</v>
       </c>
-      <c r="F42" s="56" t="n">
+      <c r="F42" s="48" t="n">
         <v>88.28125</v>
       </c>
-      <c r="G42" s="56" t="n">
+      <c r="G42" s="48" t="n">
         <v>87.5816993464</v>
       </c>
-      <c r="H42" s="57" t="n">
+      <c r="H42" s="49" t="n">
         <v>89.1666666667</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>-24.05</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="28" t="n">
+      <c r="H49" s="58"/>
+      <c r="I49" s="59"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="60"/>
+      <c r="E50" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="E47" s="28" t="n">
+      <c r="F50" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="F47" s="28" t="n">
+      <c r="G50" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="G47" s="28" t="n">
+      <c r="H50" s="60" t="n">
         <v>6</v>
       </c>
-      <c r="H47" s="28" t="n">
+      <c r="I50" s="60" t="n">
         <v>7</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="40" t="n">
-        <v>89.8514851485</v>
-      </c>
-      <c r="E48" s="41" t="n">
-        <v>93.1558935361</v>
-      </c>
-      <c r="F48" s="41" t="n">
-        <v>94.2196531792</v>
-      </c>
-      <c r="G48" s="41" t="n">
-        <v>95.7627118644</v>
-      </c>
-      <c r="H48" s="42" t="n">
-        <v>100</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>-4.78</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="40" t="n">
-        <v>75.1879699248</v>
-      </c>
-      <c r="E49" s="41" t="n">
-        <v>83.8709677419</v>
-      </c>
-      <c r="F49" s="41" t="n">
-        <v>86.3829787234</v>
-      </c>
-      <c r="G49" s="41" t="n">
-        <v>80</v>
-      </c>
-      <c r="H49" s="42" t="n">
-        <v>86.8613138686</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>-9.76</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="40" t="n">
-        <v>89.1851851852</v>
-      </c>
-      <c r="E50" s="41" t="n">
-        <v>95.067264574</v>
-      </c>
-      <c r="F50" s="41" t="n">
-        <v>93.7704918033</v>
-      </c>
-      <c r="G50" s="41" t="n">
-        <v>98.2062780269</v>
-      </c>
-      <c r="H50" s="42" t="n">
-        <v>98.0769230769</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>-14.4</v>
       </c>
       <c r="Z50" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="40" t="n">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="63" t="n">
+        <v>98.177399757</v>
+      </c>
+      <c r="F52" s="63" t="n">
+        <v>98.2456140351</v>
+      </c>
+      <c r="G52" s="63" t="n">
+        <v>98.8009592326</v>
+      </c>
+      <c r="H52" s="63" t="n">
+        <v>98.4472049689</v>
+      </c>
+      <c r="I52" s="63" t="n">
+        <v>98.7903225806</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="64" t="n">
+        <v>72.1627408994</v>
+      </c>
+      <c r="F53" s="64" t="n">
+        <v>70.2127659574</v>
+      </c>
+      <c r="G53" s="64" t="n">
+        <v>65.9955257271</v>
+      </c>
+      <c r="H53" s="64" t="n">
+        <v>66.4652567976</v>
+      </c>
+      <c r="I53" s="64" t="n">
+        <v>71.3855421687</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="64" t="n">
+        <v>72.5871857259</v>
+      </c>
+      <c r="F54" s="64" t="n">
+        <v>80.4372842348</v>
+      </c>
+      <c r="G54" s="64" t="n">
+        <v>90.9090909091</v>
+      </c>
+      <c r="H54" s="64" t="n">
+        <v>95.1612903226</v>
+      </c>
+      <c r="I54" s="64" t="n">
+        <v>97.2151898734</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="64" t="n">
+        <v>82.318501171</v>
+      </c>
+      <c r="F55" s="64" t="n">
+        <v>87.9396984925</v>
+      </c>
+      <c r="G55" s="64" t="n">
+        <v>95.6818181818</v>
+      </c>
+      <c r="H55" s="64" t="n">
+        <v>98.2089552239</v>
+      </c>
+      <c r="I55" s="64" t="n">
+        <v>98.8549618321</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="64" t="n">
+        <v>73.5191637631</v>
+      </c>
+      <c r="F56" s="64" t="n">
+        <v>81.8523153942</v>
+      </c>
+      <c r="G56" s="64" t="n">
+        <v>89.3039049236</v>
+      </c>
+      <c r="H56" s="64" t="n">
+        <v>90.9492273731</v>
+      </c>
+      <c r="I56" s="64" t="n">
+        <v>96.3068181818</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="64" t="n">
+        <v>77.0916334661</v>
+      </c>
+      <c r="F57" s="64" t="n">
+        <v>84.2329545455</v>
+      </c>
+      <c r="G57" s="64" t="n">
+        <v>88.5057471264</v>
+      </c>
+      <c r="H57" s="64" t="n">
+        <v>91.2280701754</v>
+      </c>
+      <c r="I57" s="64" t="n">
+        <v>97.4522292994</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="64" t="n">
+        <v>76.6177739431</v>
+      </c>
+      <c r="F58" s="64" t="n">
+        <v>84.2944785276</v>
+      </c>
+      <c r="G58" s="64" t="n">
+        <v>85.9967051071</v>
+      </c>
+      <c r="H58" s="64" t="n">
+        <v>95.8874458874</v>
+      </c>
+      <c r="I58" s="64" t="n">
+        <v>95.8904109589</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="64" t="n">
+        <v>77.6551724138</v>
+      </c>
+      <c r="F59" s="64" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="G59" s="64" t="n">
+        <v>94.3243243243</v>
+      </c>
+      <c r="H59" s="64" t="n">
+        <v>96.0288808664</v>
+      </c>
+      <c r="I59" s="64" t="n">
+        <v>99.0654205607</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="64" t="n">
+        <v>86.3361547763</v>
+      </c>
+      <c r="F60" s="64" t="n">
+        <v>90.3114186851</v>
+      </c>
+      <c r="G60" s="64" t="n">
+        <v>98.3644859813</v>
+      </c>
+      <c r="H60" s="64" t="n">
+        <v>94.7852760736</v>
+      </c>
+      <c r="I60" s="64" t="n">
+        <v>97.6744186047</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="66" t="n">
+        <v>77.6235906331</v>
+      </c>
+      <c r="F61" s="66" t="n">
+        <v>87.1890547264</v>
+      </c>
+      <c r="G61" s="66" t="n">
+        <v>95.4545454545</v>
+      </c>
+      <c r="H61" s="66" t="n">
+        <v>95.8515283843</v>
+      </c>
+      <c r="I61" s="66" t="n">
+        <v>99.1596638655</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="54"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="63" t="n">
+        <v>89.8514851485</v>
+      </c>
+      <c r="F63" s="63" t="n">
+        <v>93.1558935361</v>
+      </c>
+      <c r="G63" s="63" t="n">
+        <v>94.2196531792</v>
+      </c>
+      <c r="H63" s="63" t="n">
+        <v>95.7627118644</v>
+      </c>
+      <c r="I63" s="63" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="64" t="n">
+        <v>75.1879699248</v>
+      </c>
+      <c r="F64" s="64" t="n">
+        <v>83.8709677419</v>
+      </c>
+      <c r="G64" s="64" t="n">
+        <v>86.3829787234</v>
+      </c>
+      <c r="H64" s="64" t="n">
+        <v>80</v>
+      </c>
+      <c r="I64" s="64" t="n">
+        <v>86.8613138686</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="64" t="n">
+        <v>89.1851851852</v>
+      </c>
+      <c r="F65" s="64" t="n">
+        <v>95.067264574</v>
+      </c>
+      <c r="G65" s="64" t="n">
+        <v>93.7704918033</v>
+      </c>
+      <c r="H65" s="64" t="n">
+        <v>98.2062780269</v>
+      </c>
+      <c r="I65" s="64" t="n">
+        <v>98.0769230769</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="64" t="n">
         <v>86.4197530864</v>
       </c>
-      <c r="E51" s="41" t="n">
+      <c r="F66" s="64" t="n">
         <v>94.0625</v>
       </c>
-      <c r="F51" s="41" t="n">
+      <c r="G66" s="64" t="n">
         <v>96.3470319635</v>
       </c>
-      <c r="G51" s="41" t="n">
+      <c r="H66" s="64" t="n">
         <v>97.3154362416</v>
       </c>
-      <c r="H51" s="42" t="n">
+      <c r="I66" s="64" t="n">
         <v>99.0384615385</v>
       </c>
-      <c r="I51" s="0" t="n">
-        <v>-17.8</v>
-      </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="40" t="n">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="64" t="n">
         <v>81.5580286169</v>
       </c>
-      <c r="E52" s="41" t="n">
+      <c r="F67" s="64" t="n">
         <v>89.8058252427</v>
       </c>
-      <c r="F52" s="41" t="n">
+      <c r="G67" s="64" t="n">
         <v>88.9705882353</v>
       </c>
-      <c r="G52" s="41" t="n">
+      <c r="H67" s="64" t="n">
         <v>98.9795918367</v>
       </c>
-      <c r="H52" s="42" t="n">
+      <c r="I67" s="64" t="n">
         <v>98.5185185185</v>
       </c>
-      <c r="I52" s="0" t="n">
-        <v>-19.73</v>
-      </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="40" t="n">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="64" t="n">
         <v>85.8096828047</v>
       </c>
-      <c r="E53" s="41" t="n">
+      <c r="F68" s="64" t="n">
         <v>88.3248730964</v>
       </c>
-      <c r="F53" s="41" t="n">
+      <c r="G68" s="64" t="n">
         <v>91.2087912088</v>
       </c>
-      <c r="G53" s="41" t="n">
+      <c r="H68" s="64" t="n">
         <v>92.2680412371</v>
       </c>
-      <c r="H53" s="42" t="n">
+      <c r="I68" s="64" t="n">
         <v>97.037037037</v>
       </c>
-      <c r="I53" s="0" t="n">
-        <v>-21.15</v>
-      </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="40" t="n">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="64" t="n">
         <v>83.3099579243</v>
       </c>
-      <c r="E54" s="41" t="n">
+      <c r="F69" s="64" t="n">
         <v>92.600422833</v>
       </c>
-      <c r="F54" s="41" t="n">
+      <c r="G69" s="64" t="n">
         <v>92.4242424242</v>
       </c>
-      <c r="G54" s="41" t="n">
+      <c r="H69" s="64" t="n">
         <v>96.1206896552</v>
       </c>
-      <c r="H54" s="42" t="n">
+      <c r="I69" s="64" t="n">
         <v>97.6047904192</v>
       </c>
-      <c r="I54" s="0" t="n">
-        <v>-22.11</v>
-      </c>
-      <c r="O54" s="0" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="40" t="n">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="64" t="n">
         <v>91.2529550827</v>
       </c>
-      <c r="E55" s="41" t="n">
+      <c r="F70" s="64" t="n">
         <v>93.8405797101</v>
       </c>
-      <c r="F55" s="41" t="n">
+      <c r="G70" s="64" t="n">
         <v>97.8494623656</v>
       </c>
-      <c r="G55" s="41" t="n">
+      <c r="H70" s="64" t="n">
         <v>98.3870967742</v>
       </c>
-      <c r="H55" s="42" t="n">
+      <c r="I70" s="64" t="n">
         <v>100</v>
       </c>
-      <c r="I55" s="0" t="n">
-        <v>-22.3</v>
-      </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="40" t="n">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="64" t="n">
         <v>91.1057692308</v>
       </c>
-      <c r="E56" s="41" t="n">
+      <c r="F71" s="64" t="n">
         <v>92.5925925926</v>
       </c>
-      <c r="F56" s="41" t="n">
+      <c r="G71" s="64" t="n">
         <v>89.1891891892</v>
       </c>
-      <c r="G56" s="41" t="n">
+      <c r="H71" s="64" t="n">
         <v>98.4251968504</v>
       </c>
-      <c r="H56" s="42" t="n">
+      <c r="I71" s="64" t="n">
         <v>100</v>
       </c>
-      <c r="I56" s="0" t="n">
-        <v>-22.43</v>
-      </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="40" t="n">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="66" t="n">
         <v>88.9589905363</v>
       </c>
-      <c r="E57" s="41" t="n">
+      <c r="F72" s="66" t="n">
         <v>93.7649880096</v>
       </c>
-      <c r="F57" s="41" t="n">
+      <c r="G72" s="66" t="n">
         <v>96.3898916968</v>
       </c>
-      <c r="G57" s="41" t="n">
+      <c r="H72" s="66" t="n">
         <v>97.628458498</v>
       </c>
-      <c r="H57" s="42" t="n">
+      <c r="I72" s="66" t="n">
         <v>98.9528795812</v>
       </c>
-      <c r="I57" s="0" t="n">
-        <v>-24.05</v>
-      </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="28" t="n">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="54"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="63" t="n">
+        <v>76.1968085106</v>
+      </c>
+      <c r="F74" s="63" t="n">
+        <v>78.5850860421</v>
+      </c>
+      <c r="G74" s="63" t="n">
+        <v>91.7525773196</v>
+      </c>
+      <c r="H74" s="63" t="n">
+        <v>95.2054794521</v>
+      </c>
+      <c r="I74" s="63" t="n">
+        <v>95.5357142857</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="64" t="n">
+        <v>71.2041884817</v>
+      </c>
+      <c r="F75" s="64" t="n">
+        <v>78.3582089552</v>
+      </c>
+      <c r="G75" s="64" t="n">
+        <v>79.552238806</v>
+      </c>
+      <c r="H75" s="64" t="n">
+        <v>89.7368421053</v>
+      </c>
+      <c r="I75" s="64" t="n">
+        <v>90.5325443787</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="64" t="n">
+        <v>76.6393442623</v>
+      </c>
+      <c r="F76" s="64" t="n">
+        <v>79.649122807</v>
+      </c>
+      <c r="G76" s="64" t="n">
+        <v>84.7826086957</v>
+      </c>
+      <c r="H76" s="64" t="n">
+        <v>88.0566801619</v>
+      </c>
+      <c r="I76" s="64" t="n">
+        <v>89.2307692308</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="64" t="n">
+        <v>82.0422535211</v>
+      </c>
+      <c r="F77" s="64" t="n">
+        <v>88.3642495784</v>
+      </c>
+      <c r="G77" s="64" t="n">
+        <v>90.2272727273</v>
+      </c>
+      <c r="H77" s="64" t="n">
+        <v>94.4117647059</v>
+      </c>
+      <c r="I77" s="64" t="n">
+        <v>95.0381679389</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="64" t="n">
+        <v>76.2148337596</v>
+      </c>
+      <c r="F78" s="64" t="n">
+        <v>76.7639902676</v>
+      </c>
+      <c r="G78" s="64" t="n">
+        <v>77.7597402597</v>
+      </c>
+      <c r="H78" s="64" t="n">
+        <v>83.9743589744</v>
+      </c>
+      <c r="I78" s="64" t="n">
+        <v>85.6756756757</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="28" t="n">
+      <c r="E79" s="64" t="n">
+        <v>76.66015625</v>
+      </c>
+      <c r="F79" s="64" t="n">
+        <v>80.1120448179</v>
+      </c>
+      <c r="G79" s="64" t="n">
+        <v>89.6226415094</v>
+      </c>
+      <c r="H79" s="64" t="n">
+        <v>90.9535452323</v>
+      </c>
+      <c r="I79" s="64" t="n">
+        <v>95.3125</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="64" t="n">
+        <v>75.595727198</v>
+      </c>
+      <c r="F80" s="64" t="n">
+        <v>83.1775700935</v>
+      </c>
+      <c r="G80" s="64" t="n">
+        <v>95.9183673469</v>
+      </c>
+      <c r="H80" s="64" t="n">
+        <v>87.9098360656</v>
+      </c>
+      <c r="I80" s="64" t="n">
+        <v>89.6373056995</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="64" t="n">
+        <v>84</v>
+      </c>
+      <c r="F81" s="64" t="n">
+        <v>88.622754491</v>
+      </c>
+      <c r="G81" s="64" t="n">
+        <v>94.1666666667</v>
+      </c>
+      <c r="H81" s="64" t="n">
+        <v>99.2957746479</v>
+      </c>
+      <c r="I81" s="64" t="n">
+        <v>99.0610328638</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="64" t="n">
+        <v>77.6551724138</v>
+      </c>
+      <c r="F82" s="64" t="n">
+        <v>82.9317269076</v>
+      </c>
+      <c r="G82" s="64" t="n">
+        <v>86.7768595041</v>
+      </c>
+      <c r="H82" s="64" t="n">
+        <v>83.7931034483</v>
+      </c>
+      <c r="I82" s="64" t="n">
+        <v>73.2941176471</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="66" t="n">
+        <v>75.2971137521</v>
+      </c>
+      <c r="F83" s="66" t="n">
+        <v>78.5973397823</v>
+      </c>
+      <c r="G83" s="66" t="n">
+        <v>82.4476650564</v>
+      </c>
+      <c r="H83" s="66" t="n">
+        <v>89.0063424947</v>
+      </c>
+      <c r="I83" s="66" t="n">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="28" t="n">
+      <c r="E85" s="63" t="n">
+        <v>90.0388098318</v>
+      </c>
+      <c r="F85" s="63" t="n">
+        <v>91.061452514</v>
+      </c>
+      <c r="G85" s="63" t="n">
+        <v>92.8753180662</v>
+      </c>
+      <c r="H85" s="63" t="n">
+        <v>94.2760942761</v>
+      </c>
+      <c r="I85" s="63" t="n">
+        <v>96.5367965368</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="28" t="n">
+      <c r="E86" s="64" t="n">
+        <v>79.6074154853</v>
+      </c>
+      <c r="F86" s="64" t="n">
+        <v>85.761589404</v>
+      </c>
+      <c r="G86" s="64" t="n">
+        <v>89.7959183673</v>
+      </c>
+      <c r="H86" s="64" t="n">
+        <v>94.262295082</v>
+      </c>
+      <c r="I86" s="64" t="n">
+        <v>96.2068965517</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="64" t="n">
+        <v>94.8094079481</v>
+      </c>
+      <c r="F87" s="64" t="n">
+        <v>93.6268829664</v>
+      </c>
+      <c r="G87" s="64" t="n">
+        <v>92.9022082019</v>
+      </c>
+      <c r="H87" s="64" t="n">
+        <v>91.9839679359</v>
+      </c>
+      <c r="I87" s="64" t="n">
+        <v>92.2879177378</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="64" t="n">
+        <v>94.3970767357</v>
+      </c>
+      <c r="F88" s="64" t="n">
+        <v>92.2535211268</v>
+      </c>
+      <c r="G88" s="64" t="n">
+        <v>91.8465227818</v>
+      </c>
+      <c r="H88" s="64" t="n">
+        <v>88.3647798742</v>
+      </c>
+      <c r="I88" s="64" t="n">
+        <v>89.4308943089</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="64" t="n">
+        <v>91.797556719</v>
+      </c>
+      <c r="F89" s="64" t="n">
+        <v>90.2255639098</v>
+      </c>
+      <c r="G89" s="64" t="n">
+        <v>88.2252559727</v>
+      </c>
+      <c r="H89" s="64" t="n">
+        <v>86.3436123348</v>
+      </c>
+      <c r="I89" s="64" t="n">
+        <v>85.3521126761</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="64" t="n">
+        <v>90.0390625</v>
+      </c>
+      <c r="F90" s="64" t="n">
+        <v>87.675070028</v>
+      </c>
+      <c r="G90" s="64" t="n">
+        <v>89.0566037736</v>
+      </c>
+      <c r="H90" s="64" t="n">
+        <v>88.5085574572</v>
+      </c>
+      <c r="I90" s="64" t="n">
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="64" t="n">
+        <v>83.6025848142</v>
+      </c>
+      <c r="F91" s="64" t="n">
+        <v>82.6388888889</v>
+      </c>
+      <c r="G91" s="64" t="n">
+        <v>83.6990595611</v>
+      </c>
+      <c r="H91" s="64" t="n">
+        <v>89.1783567134</v>
+      </c>
+      <c r="I91" s="64" t="n">
+        <v>96.1340206186</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="64" t="n">
+        <v>79.5977011494</v>
+      </c>
+      <c r="F92" s="64" t="n">
+        <v>88.4057971014</v>
+      </c>
+      <c r="G92" s="64" t="n">
+        <v>90.1685393258</v>
+      </c>
+      <c r="H92" s="64" t="n">
+        <v>93.1558935361</v>
+      </c>
+      <c r="I92" s="64" t="n">
+        <v>95.1923076923</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>20</v>
+      <c r="E93" s="64" t="n">
+        <v>92.0833333333</v>
+      </c>
+      <c r="F93" s="64" t="n">
+        <v>89.1089108911</v>
+      </c>
+      <c r="G93" s="64" t="n">
+        <v>92.7807486631</v>
+      </c>
+      <c r="H93" s="64" t="n">
+        <v>90.5797101449</v>
+      </c>
+      <c r="I93" s="64" t="n">
+        <v>96.8181818182</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="55" t="n">
-        <v>90.0388098318</v>
-      </c>
-      <c r="E60" s="56" t="n">
-        <v>91.061452514</v>
-      </c>
-      <c r="F60" s="56" t="n">
-        <v>92.8753180662</v>
-      </c>
-      <c r="G60" s="56" t="n">
-        <v>94.2760942761</v>
-      </c>
-      <c r="H60" s="57" t="n">
-        <v>96.5367965368</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>-4.78</v>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="66" t="n">
+        <v>91.8331885317</v>
+      </c>
+      <c r="F94" s="66" t="n">
+        <v>88.0448318804</v>
+      </c>
+      <c r="G94" s="66" t="n">
+        <v>88.28125</v>
+      </c>
+      <c r="H94" s="66" t="n">
+        <v>87.5816993464</v>
+      </c>
+      <c r="I94" s="66" t="n">
+        <v>89.1666666667</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="55" t="n">
-        <v>79.6074154853</v>
-      </c>
-      <c r="E61" s="56" t="n">
-        <v>85.761589404</v>
-      </c>
-      <c r="F61" s="56" t="n">
-        <v>89.7959183673</v>
-      </c>
-      <c r="G61" s="56" t="n">
-        <v>94.262295082</v>
-      </c>
-      <c r="H61" s="57" t="n">
-        <v>96.2068965517</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>-9.76</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="55" t="n">
-        <v>94.8094079481</v>
-      </c>
-      <c r="E62" s="56" t="n">
-        <v>93.6268829664</v>
-      </c>
-      <c r="F62" s="56" t="n">
-        <v>92.9022082019</v>
-      </c>
-      <c r="G62" s="56" t="n">
-        <v>91.9839679359</v>
-      </c>
-      <c r="H62" s="57" t="n">
-        <v>92.2879177378</v>
-      </c>
-      <c r="I62" s="0" t="n">
-        <v>-14.4</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="55" t="n">
-        <v>94.3970767357</v>
-      </c>
-      <c r="E63" s="56" t="n">
-        <v>92.2535211268</v>
-      </c>
-      <c r="F63" s="56" t="n">
-        <v>91.8465227818</v>
-      </c>
-      <c r="G63" s="56" t="n">
-        <v>88.3647798742</v>
-      </c>
-      <c r="H63" s="57" t="n">
-        <v>89.4308943089</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <v>-17.8</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="55" t="n">
-        <v>91.797556719</v>
-      </c>
-      <c r="E64" s="56" t="n">
-        <v>90.2255639098</v>
-      </c>
-      <c r="F64" s="56" t="n">
-        <v>88.2252559727</v>
-      </c>
-      <c r="G64" s="56" t="n">
-        <v>86.3436123348</v>
-      </c>
-      <c r="H64" s="57" t="n">
-        <v>85.3521126761</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>-19.73</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="55" t="n">
-        <v>90.0390625</v>
-      </c>
-      <c r="E65" s="56" t="n">
-        <v>87.675070028</v>
-      </c>
-      <c r="F65" s="56" t="n">
-        <v>89.0566037736</v>
-      </c>
-      <c r="G65" s="56" t="n">
-        <v>88.5085574572</v>
-      </c>
-      <c r="H65" s="57" t="n">
-        <v>90.625</v>
-      </c>
-      <c r="I65" s="0" t="n">
-        <v>-21.15</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="55" t="n">
-        <v>83.6025848142</v>
-      </c>
-      <c r="E66" s="56" t="n">
-        <v>82.6388888889</v>
-      </c>
-      <c r="F66" s="56" t="n">
-        <v>83.6990595611</v>
-      </c>
-      <c r="G66" s="56" t="n">
-        <v>89.1783567134</v>
-      </c>
-      <c r="H66" s="57" t="n">
-        <v>96.1340206186</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>-22.11</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="55" t="n">
-        <v>79.5977011494</v>
-      </c>
-      <c r="E67" s="56" t="n">
-        <v>88.4057971014</v>
-      </c>
-      <c r="F67" s="56" t="n">
-        <v>90.1685393258</v>
-      </c>
-      <c r="G67" s="56" t="n">
-        <v>93.1558935361</v>
-      </c>
-      <c r="H67" s="57" t="n">
-        <v>95.1923076923</v>
-      </c>
-      <c r="I67" s="0" t="n">
-        <v>-22.3</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="55" t="n">
-        <v>92.0833333333</v>
-      </c>
-      <c r="E68" s="56" t="n">
-        <v>89.1089108911</v>
-      </c>
-      <c r="F68" s="56" t="n">
-        <v>92.7807486631</v>
-      </c>
-      <c r="G68" s="56" t="n">
-        <v>90.5797101449</v>
-      </c>
-      <c r="H68" s="57" t="n">
-        <v>96.8181818182</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <v>-22.43</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="55" t="n">
-        <v>91.8331885317</v>
-      </c>
-      <c r="E69" s="56" t="n">
-        <v>88.0448318804</v>
-      </c>
-      <c r="F69" s="56" t="n">
-        <v>88.28125</v>
-      </c>
-      <c r="G69" s="56" t="n">
-        <v>87.5816993464</v>
-      </c>
-      <c r="H69" s="57" t="n">
-        <v>89.1666666667</v>
-      </c>
-      <c r="I69" s="0" t="n">
-        <v>-24.05</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="L11:Q15"/>
+  <autoFilter ref="C2:I42"/>
   <conditionalFormatting sqref="D3:H42">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -13159,7 +13513,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:H57">
+  <conditionalFormatting sqref="D48:H49">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13171,8 +13525,476 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:H69">
+  <conditionalFormatting sqref="E63:I63">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:I64">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:I65">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:I66">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:I67">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:I68">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:I69">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:I70">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:I71">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72:I72">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:I74">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75:I75">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76:I76">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77:I77">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:I78">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:I79">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:I80">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:I81">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:I82">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:I83">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:I85">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86:I86">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:I87">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88:I88">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89:I89">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:I90">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91:I91">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:I92">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93:I93">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94:I94">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:I52">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:I53">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:I54">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:I55">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:I56">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:I57">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:I58">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:I59">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:I60">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:I61">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -13207,27 +14029,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
